--- a/docs/sample_report.xlsx
+++ b/docs/sample_report.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -456,7 +456,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
@@ -671,7 +671,7 @@
             Campaign Information:
             Campaign: Saasquatch_Verbal_USCA
 Engagement method: Customer or partner referral - high trust, warm introduction
-Secondary channel: Verbal Referrals
+Secondary channel: Direct verbal referral - trusted, high-conversion channel
 Campaign format: Generic email campaign engagment - intent and quality depend on content
 Lead source context: Saasquatch
 Campaign description: Referral
@@ -683,7 +683,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Prospects engaged through high-trust verbal referrals for Saasquatch in the US, indicating strong interest in the product/service. Likely in the consideration stage of the buyer's journey.</t>
+          <t>Prospect likely engaged with the Saasquatch_Verbal_USCA campaign through a warm introduction or trusted verbal referral, indicating high interest and intent. This suggests they are in the consideration stage of the buyer's journey.</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
             Campaign Information:
             Campaign: Digital_Invoca_WalkOn
 Engagement method: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
-Secondary channel: Walk-On
+Secondary channel: Inbound lead without source - prospect found us directly
 Campaign format: Generic email campaign engagment - intent and quality depend on content
 Campaign title: Digital_Invoca_WalkOn
 Target geographic market for campaign: US
@@ -762,7 +762,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Prospects self-submitted without a specific campaign, showing high initiative and potentially urgent need. Engaging with a generic email campaign indicates early to mid buyer's journey stage.</t>
+          <t>Prospect initiated contact directly from US, showing high interest and possible urgency. Their intent suggests active research or immediate need, indicating they are likely in the consideration or decision stage.</t>
         </is>
       </c>
     </row>
@@ -861,9 +861,9 @@
 Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
 Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
 Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Brand Search
+Secondary channel: Found via RingCentral brand keyword search - direct high intent query
 Specific engagement context: Searched 'RingCentral' or product names - brand aware, high intent
-Target customer profile campaign identifier: Hello to Growing Your Business
+Target customer profile campaign identifier: Small business scaling - fast setup, flexible usage, and business growth
 Campaign format: Ad campaign response - varying intent based on ad type
 Lead source context: Google Ads - paid search intent
 Value proposition focus: SMB messaging - simplicity and growth focus
@@ -877,7 +877,237 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Prospects actively seeking communication solutions engage with Google ads, signaling IT decision maker interest in UCaaS. Likely in the consideration stage, seeking cost-effective business phone systems.</t>
+          <t>Prospects actively searching for communication solutions clicked on search ads, showing high intent for UCaaS. Likely IT decision makers at small businesses seeking cost-effective, scalable options. In the consideration stage of the buyer's journey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Google_US_Search_Brand_Phrase</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Phrase</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7012H000001hVwrQAE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brand Search</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Hello to Growing Your Business</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Easily set up and grow my business</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Phrase</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
+            1. What the prospect was doing when they engaged with this campaign
+            2. Why they likely engaged (their intent/interest)
+            3. What this tells us about their buyer's journey stage
+            Focus on the prospect's perspective and intent, not marketing terminology.
+            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+            Campaign Information:
+            Campaign: Google_US_Search_Brand_Phrase
+Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
+Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
+Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Found via RingCentral brand keyword search - direct high intent query
+Specific engagement context: Searched 'RingCentral' or product names - brand aware, high intent
+Target customer profile campaign identifier: Small business scaling - fast setup, flexible usage, and business growth
+Campaign format: Ad campaign response - varying intent based on ad type
+Lead source context: Google Ads - paid search intent
+Value proposition focus: SMB messaging - simplicity and growth focus
+Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Phrase
+Campaign title: Google_US_Search_Brand_Phrase
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Phrase
+            Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Prospects actively searching for communication solutions, likely IT decision makers for unified communications, showing high intent and brand awareness. Indicates mid to late-stage buyer's journey for small businesses scaling operations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Google_US_Search_Fax_Exact</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Fax_Exact</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7012H000001hVx3QAE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Hello to Growing Your Business</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Easily set up and grow my business</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Fax_Exact</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
+            1. What the prospect was doing when they engaged with this campaign
+            2. Why they likely engaged (their intent/interest)
+            3. What this tells us about their buyer's journey stage
+            Focus on the prospect's perspective and intent, not marketing terminology.
+            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+            Campaign Information:
+            Campaign: Google_US_Search_Fax_Exact
+Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
+Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
+Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: SEM/SEO driven - paid or organic search
+Specific engagement context: Searched generic terms like 'business phone system' - comparing solutions
+Target customer profile campaign identifier: Small business scaling - fast setup, flexible usage, and business growth
+Campaign format: Ad campaign response - varying intent based on ad type
+Lead source context: Google Ads - paid search intent
+Value proposition focus: SMB messaging - simplicity and growth focus
+Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Fax_Exact
+Campaign title: Google_US_Search_Fax_Exact
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Fax_Exact
+            Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Prospects actively searching for communication solutions, comparing options for business phone systems. Likely IT decision makers at small businesses focused on fast setup and growth. Early to mid-buyer's journey stage.</t>
         </is>
       </c>
     </row>
@@ -933,7 +1163,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -943,7 +1173,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -976,7 +1206,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>194.0 chars</t>
+          <t>229.6 chars</t>
         </is>
       </c>
     </row>
@@ -987,7 +1217,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
@@ -997,7 +1227,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -1037,7 +1267,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -1057,7 +1287,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -1067,7 +1297,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -1078,7 +1308,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-11 14:36:41</t>
+          <t>2025-07-14 11:44:54</t>
         </is>
       </c>
     </row>

--- a/docs/sample_report.xlsx
+++ b/docs/sample_report.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
@@ -456,11 +456,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="23" customWidth="1" min="7" max="7"/>
     <col width="25" customWidth="1" min="8" max="8"/>
@@ -484,27 +484,27 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Channel__c</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Id</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -601,27 +601,27 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
+          <t>7012H000000seXoQAI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Saasquatch_Verbal_USCA</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Referrals</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Email Only</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Referral</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>7012H000000seXoQAI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -683,32 +683,32 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Prospect likely engaged with the Saasquatch_Verbal_USCA campaign through a warm introduction or trusted verbal referral, indicating high interest and intent. This suggests they are in the consideration stage of the buyer's journey.</t>
+          <t>Prospects engaged via high-trust verbal referrals for Saasquatch in the US. Likely interested due to trusted recommendations, indicating strong intent and high readiness to explore solutions. Shows they are actively seeking solutions, likely in the con...</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>7012H000001gtUFQAY</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Digital_Invoca_WalkOn</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Walk-On</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7012H000001gtUFQAY</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>Walk-On</t>
@@ -762,34 +762,34 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Prospect initiated contact directly from US, showing high interest and possible urgency. Their intent suggests active research or immediate need, indicating they are likely in the consideration or decision stage.</t>
+          <t>Prospect likely engaged with Digital_Invoca_WalkOn campaign by self-submitting an inquiry, showing high initiative and potential urgency. Direct engagement indicates strong interest, possibly in urgent need. Indicates mid-to-late buyer's journey stage.</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
+          <t>7012H000001hVwqQAE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Google_US_Search_Brand_Exact</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Paid Search</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Advertisement</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Exact</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7012H000001hVwqQAE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -877,34 +877,34 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Prospects actively searching for communication solutions clicked on search ads, showing high intent for UCaaS. Likely IT decision makers at small businesses seeking cost-effective, scalable options. In the consideration stage of the buyer's journey.</t>
+          <t>Prospects actively seeking communication solutions clicked on Google search ads for RingCentral, indicating high intent for UCaaS. Likely IT decision-makers in small businesses, aiming for cost savings and growth, showing late-stage buyer journey inter...</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
+          <t>7012H000001hVwrQAE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Google_US_Search_Brand_Phrase</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Paid Search</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Advertisement</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Phrase</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7012H000001hVwrQAE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -992,34 +992,34 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Prospects actively searching for communication solutions, likely IT decision makers for unified communications, showing high intent and brand awareness. Indicates mid to late-stage buyer's journey for small businesses scaling operations.</t>
+          <t>Prospects actively seeking communication solutions, especially UCaaS/business phone systems, showing high IT decision-making interest. Likely in consideration stage of buyer's journey, looking for cost-effective, scalable options for small businesses.</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
+          <t>7012H000001hVx3QAE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Google_US_Search_Fax_Exact</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Paid Search</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Advertisement</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Fax_Exact</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7012H000001hVx3QAE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Prospects actively searching for communication solutions, comparing options for business phone systems. Likely IT decision makers at small businesses focused on fast setup and growth. Early to mid-buyer's journey stage.</t>
+          <t>Prospects actively searching for communication solutions, likely comparing options for a business phone system. Indicates mid-stage buyer's journey for a small business IT decision maker considering UCaaS.</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>229.6 chars</t>
+          <t>243.6 chars</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-14 11:44:54</t>
+          <t>2025-07-14 12:13:22</t>
         </is>
       </c>
     </row>

--- a/docs/sample_report.xlsx
+++ b/docs/sample_report.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -457,18 +457,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
     <col width="23" customWidth="1" min="7" max="7"/>
     <col width="25" customWidth="1" min="8" max="8"/>
     <col width="21" customWidth="1" min="9" max="9"/>
     <col width="32" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="36" customWidth="1" min="13" max="13"/>
     <col width="13" customWidth="1" min="14" max="14"/>
     <col width="36" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Prospects engaged via high-trust verbal referrals for Saasquatch in the US. Likely interested due to trusted recommendations, indicating strong intent and high readiness to explore solutions. Shows they are actively seeking solutions, likely in the con...</t>
+          <t>Prospects were referred to Saasquatch via a trusted source, likely indicating strong interest or need. Their engagement suggests they are in the consideration stage of the buyer's journey.</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Prospect likely engaged with Digital_Invoca_WalkOn campaign by self-submitting an inquiry, showing high initiative and potential urgency. Direct engagement indicates strong interest, possibly in urgent need. Indicates mid-to-late buyer's journey stage.</t>
+          <t>Prospect self-submitted, likely urgently needing Invoca's digital solution. Directly found us. Engaged with generic email, showing high initiative. In early to mid-buyer's journey stage.</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Prospects actively seeking communication solutions clicked on Google search ads for RingCentral, indicating high intent for UCaaS. Likely IT decision-makers in small businesses, aiming for cost savings and growth, showing late-stage buyer journey inter...</t>
+          <t>Prospects actively searching for communication solutions with high intent found via RingCentral brand search, indicating IT decision makers in small businesses scaling up, likely in the consideration stage of the buyer's journey.</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Prospects actively seeking communication solutions, especially UCaaS/business phone systems, showing high IT decision-making interest. Likely in consideration stage of buyer's journey, looking for cost-effective, scalable options for small businesses.</t>
+          <t>Prospect actively searched for communication solutions, focusing on RingCentral, showing high intent as a small business IT decision maker exploring UCaaS. Likely in the consideration stage of their buyer's journey.</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,838 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Prospects actively searching for communication solutions, likely comparing options for a business phone system. Indicates mid-stage buyer's journey for a small business IT decision maker considering UCaaS.</t>
+          <t>Prospects actively searching for communication solutions, likely comparing options for a business phone system. Indicates mid-funnel buyer considering IT decisions for unified communications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7012H000001hVx6QAE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Google_US_Search_Phone_Systems_Exact</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Phone_Systems_Exact</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Hello to Growing Your Business</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Easily set up and grow my business</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Phone_Systems_Exact</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
+            1. What the prospect was doing when they engaged with this campaign
+            2. Why they likely engaged (their intent/interest)
+            3. What this tells us about their buyer's journey stage
+            Focus on the prospect's perspective and intent, not marketing terminology.
+            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+            Campaign Information:
+            Campaign: Google_US_Search_Phone_Systems_Exact
+Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
+Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
+Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: SEM/SEO driven - paid or organic search
+Specific engagement context: Searched generic terms like 'business phone system' - comparing solutions
+Target customer profile campaign identifier: Small business scaling - fast setup, flexible usage, and business growth
+Campaign format: Ad campaign response - varying intent based on ad type
+Lead source context: Google Ads - paid search intent
+Value proposition focus: SMB messaging - simplicity and growth focus
+Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Phone_Systems_Exact
+Campaign title: Google_US_Search_Phone_Systems_Exact
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Phone_Systems_Exact
+            Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Prospects actively searching for business phone systems on Google US likely seek cost-effective UCaaS solutions. They are comparing options, indicating mid to late buyer's journey stage as small businesses scaling up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7012H000001l35sQAA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Affiliates_TheTop10sites</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - TheTop10Sites.com (https://www.thetop10sites.com/business-voip/) and submitted their info through the web form or called in.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Direct Affiliates</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Affiliates - CPL</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Better Impression (US)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - TheTop10Sites.com (https://www.thetop10sites.com/business-voip/) and submitted their info through the web form or called in.</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
+            1. What the prospect was doing when they engaged with this campaign
+            2. Why they likely engaged (their intent/interest)
+            3. What this tells us about their buyer's journey stage
+            Focus on the prospect's perspective and intent, not marketing terminology.
+            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+            Campaign Information:
+            Campaign: Affiliates_TheTop10sites
+Engagement method: Referred through affiliate partner - has some context about RingCentral
+Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
+Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Referred by direct affiliate - warm intro with initial context
+Specific engagement context: Affiliate referral - cost-per-lead, mid-intent form fill
+Target customer profile program classification: Ongoing evergreen campaign - continous lead flow
+Target customer profile and strategy: Targeting small business (1-499 employees) - faster sales cycle, price sensitive
+Lead source context: Better Impression (US)
+Company size segment: 20-99 employees - growing company, scalability important
+Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
+Campaign description: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - TheTop10Sites.com (https://www.thetop10sites.com/business-voip/) and submitted their info through the web form or called in.
+Campaign title: Affiliates_TheTop10sites
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - TheTop10Sites.com (https://www.thetop10sites.com/business-voip/) and submitted their info through the web form or called in.
+            Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Prospect researching business phone systems on TheTop10Sites.com followed a cost-saving lead to RingCentral. High-intent evaluation stage, likely IT decision maker.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7012H000001l3BBQAY</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Affiliates_BusinessBPS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Content/Review Website - Business.com (https://www.business.com/categories/business-phone-systems/) and submitted their info through the web form or called in.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Direct Affiliates</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Affiliates - CPC</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Purch (Business News Daily - VOIP)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Content/Review Website - Business.com (https://www.business.com/categories/business-phone-systems/) and submitted their info through the web form or called in.</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
+            1. What the prospect was doing when they engaged with this campaign
+            2. Why they likely engaged (their intent/interest)
+            3. What this tells us about their buyer's journey stage
+            Focus on the prospect's perspective and intent, not marketing terminology.
+            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+            Campaign Information:
+            Campaign: Affiliates_BusinessBPS
+Engagement method: Referred through affiliate partner - has some context about RingCentral
+Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
+Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Referred by direct affiliate - warm intro with initial context
+Specific engagement context: Clicked cost-per-click affiliate link - low-friction awareness
+Target customer profile program classification: Ongoing evergreen campaign - continous lead flow
+Target customer profile and strategy: Targeting small business (1-499 employees) - faster sales cycle, price sensitive
+Lead source context: Purch (Business News Daily - VOIP)
+Company size segment: 20-99 employees - growing company, scalability important
+Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
+Campaign description: Prospect visited RingCentral Office Landing Page from a Content/Review Website - Business.com (https://www.business.com/categories/business-phone-systems/) and submitted their info through the web form or called in.
+Campaign title: Affiliates_BusinessBPS
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Prospect visited RingCentral Office Landing Page from a Content/Review Website - Business.com (https://www.business.com/categories/business-phone-systems/) and submitted their info through the web form or called in.
+            Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Prospect actively seeking unified communications solution for cost savings, likely an IT decision maker. High-intent evaluation stage, engaging through low-friction affiliate link from Business.com.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>70134000001CjkkAAC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bing_US_Search_Brand_Exact</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Brand Search</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
+            1. What the prospect was doing when they engaged with this campaign
+            2. Why they likely engaged (their intent/interest)
+            3. What this tells us about their buyer's journey stage
+            Focus on the prospect's perspective and intent, not marketing terminology.
+            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+            Campaign Information:
+            Campaign: Bing_US_Search_Brand_Exact
+Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
+Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Found via RingCentral brand keyword search - direct high intent query
+Specific engagement context: Searched 'RingCentral' or product names - brand aware, high intent
+Lead source context: Bing
+Campaign description: Paid Search
+Campaign title: Bing_US_Search_Brand_Exact
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search
+            Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Prospects actively searching for communication solutions clicked on Bing search ads for 'RingCentral' or related terms, showing high intent. Likely IT decision makers in the buying stage evaluating UCaaS options.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>70134000001XyCZAA0</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RCO/ACO_Price_Parity</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>VAR MDF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Events</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>VAR Marketing</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
+            1. What the prospect was doing when they engaged with this campaign
+            2. Why they likely engaged (their intent/interest)
+            3. What this tells us about their buyer's journey stage
+            Focus on the prospect's perspective and intent, not marketing terminology.
+            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+            Campaign Information:
+            Campaign: RCO/ACO_Price_Parity
+Engagement method: Campaign funded through reseller marketing - likely co-branded outreach via trusted tech advisor
+Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Event marketing - webinars, conferences, tradeshows
+Lead source context: VAR Marketing
+Campaign title: RCO/ACO_Price_Parity
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+            Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Prospects engaged with the RCO/ACO_Price_Parity campaign, seeking price parity for UCaaS solutions. Likely IT decision makers exploring unified communications options, indicating a mid-stage buyer's journey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>70180000000OwaeAAC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SEO_GoogleRC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Organic Search</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
+            1. What the prospect was doing when they engaged with this campaign
+            2. Why they likely engaged (their intent/interest)
+            3. What this tells us about their buyer's journey stage
+            Focus on the prospect's perspective and intent, not marketing terminology.
+            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+            Campaign Information:
+            Campaign: SEO_GoogleRC
+Engagement method: Found us through organic search - self-directed research, comparing options
+Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: SEM/SEO driven - paid or organic search
+Campaign title: SEO_GoogleRC
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+            Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Prospects conducting self-research on Google for UCaaS options in the US found us through SEO_GoogleRC. Likely IT decision makers at the comparison stage of their buyer's journey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>701800000019F0iAAE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sales Generated</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Walk-On</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sales Generated</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>21</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
+            1. What the prospect was doing when they engaged with this campaign
+            2. Why they likely engaged (their intent/interest)
+            3. What this tells us about their buyer's journey stage
+            Focus on the prospect's perspective and intent, not marketing terminology.
+            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+            Campaign Information:
+            Campaign: Sales Generated
+Engagement method: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
+Secondary channel: Entered by sales team from internal source - low initial engagement
+Campaign title: Sales Generated
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+            Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Prospects likely sought help urgently when engaging with "Sales Generated" campaign from the US. Their high initiative suggests immediate needs, placing them in the decision-making stage of the buyer's journey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>701Hr000000t6JrIAI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HealthcareLPformfills</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Healthcare integrated campaign</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Healthcare integrated campaign</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
+            1. What the prospect was doing when they engaged with this campaign
+            2. Why they likely engaged (their intent/interest)
+            3. What this tells us about their buyer's journey stage
+            Focus on the prospect's perspective and intent, not marketing terminology.
+            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+            Campaign Information:
+            Campaign: HealthcareLPformfills
+Engagement method: Engagment channel not categorized - review needed to determine buyer intent
+Secondary channel: Direct website visit or form fill - proactive buyer behavior
+Lead source context: Healthcare
+Industry context: Healthcare industry - HIPAA compilance needs
+Campaign description: Healthcare integrated campaign
+Campaign title: HealthcareLPformfills
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Healthcare integrated campaign
+            Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Prospects actively sought healthcare solutions via direct website visits or form fills, showing proactive interest in HIPAA compliance. Indicates mid to late buyer's journey stages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>701Hr000002I3SJIA0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>True_Walk_On_2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Walk-On</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Walk-On</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
+            1. What the prospect was doing when they engaged with this campaign
+            2. Why they likely engaged (their intent/interest)
+            3. What this tells us about their buyer's journey stage
+            Focus on the prospect's perspective and intent, not marketing terminology.
+            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+            Campaign Information:
+            Campaign: True_Walk_On_2024
+Engagement method: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
+Secondary channel: Inbound lead without source - prospect found us directly
+Campaign title: True_Walk_On_2024
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+            Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>The prospect proactively sought information about "True_Walk_On_2024," indicating a high initiative and potentially urgent need. They likely engaged due to a direct interest in the campaign topic, showing an advanced stage in their buyer's journey.</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1994,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -1173,7 +2004,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -1206,7 +2037,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>243.6 chars</t>
+          <t>201.8 chars</t>
         </is>
       </c>
     </row>
@@ -1217,7 +2048,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
@@ -1227,7 +2058,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -1237,7 +2068,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -1247,7 +2078,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -1267,7 +2098,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -1287,7 +2118,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -1297,7 +2128,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -1308,7 +2139,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-14 12:13:22</t>
+          <t>2025-07-14 12:31:06</t>
         </is>
       </c>
     </row>

--- a/docs/sample_report.xlsx
+++ b/docs/sample_report.xlsx
@@ -662,14 +662,10 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: Saasquatch_Verbal_USCA
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. This lead came through a trusted third party referral or partner. 2. What the partnership suggests about product fit or integration potential. 3. How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Saasquatch_Verbal_USCA
 Engagement method: Customer or partner referral - high trust, warm introduction
 Secondary channel: Direct verbal referral - trusted, high-conversion channel
 Campaign format: Generic email campaign engagment - intent and quality depend on content
@@ -678,12 +674,12 @@
 Campaign title: Saasquatch_Verbal_USCA
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Prospects were referred to Saasquatch via a trusted source, likely indicating strong interest or need. Their engagement suggests they are in the consideration stage of the buyer's journey.</t>
+          <t>Lead from Saasquatch_Verbal_USCA campaign via trusted partner referral signals strong product fit and potential integration with our solutions. Leverage referral trust and emphasize ecosystem relevance in outreach.</t>
         </is>
       </c>
     </row>
@@ -743,26 +739,22 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: Digital_Invoca_WalkOn
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The prospect attended a live event or self submitted interest. 2. What this action suggests about their current interest or goals. 3. How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Digital_Invoca_WalkOn
 Engagement method: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
 Secondary channel: Inbound lead without source - prospect found us directly
 Campaign format: Generic email campaign engagment - intent and quality depend on content
 Campaign title: Digital_Invoca_WalkOn
 Target geographic market for campaign: US
 Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Prospect self-submitted, likely urgently needing Invoca's digital solution. Directly found us. Engaged with generic email, showing high initiative. In early to mid-buyer's journey stage.</t>
+          <t>Prospect engaged with Digital_Invoca_WalkOn, showing high initiative. Likely has urgent needs. Follow up by referencing shared event experience or learning goals from the campaign. Maintain a relationship-driven approach, emphasizing common interests.</t>
         </is>
       </c>
     </row>
@@ -850,14 +842,10 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: Google_US_Search_Brand_Exact
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_Brand_Exact
 Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
 Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
 Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
@@ -872,12 +860,12 @@
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
 Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Exact
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Prospects actively searching for communication solutions with high intent found via RingCentral brand search, indicating IT decision makers in small businesses scaling up, likely in the consideration stage of the buyer's journey.</t>
+          <t>Lead actively searching for communication solutions, likely IT decision maker for UCaaS. Triggered by high-intent 'RingCentral' search. Tailor outreach to highlight cost savings, fast setup, and SMB growth benefits.</t>
         </is>
       </c>
     </row>
@@ -965,14 +953,10 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: Google_US_Search_Brand_Phrase
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_Brand_Phrase
 Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
 Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
 Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
@@ -987,12 +971,12 @@
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
 Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Phrase
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Prospect actively searched for communication solutions, focusing on RingCentral, showing high intent as a small business IT decision maker exploring UCaaS. Likely in the consideration stage of their buyer's journey.</t>
+          <t>Lead actively seeking UCaaS/business phone system solutions via Google search ads. High intent, brand-aware. Tailor outreach with urgency for cost savings pitch, ideal for small businesses scaling rapidly.</t>
         </is>
       </c>
     </row>
@@ -1080,14 +1064,10 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: Google_US_Search_Fax_Exact
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_Fax_Exact
 Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
 Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
 Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
@@ -1102,12 +1082,12 @@
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
 Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Fax_Exact
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Prospects actively searching for communication solutions, likely comparing options for a business phone system. Indicates mid-funnel buyer considering IT decisions for unified communications.</t>
+          <t>Lead actively sought communication solutions, likely comparing business phone systems, triggered by 'business phone system' search ads. Tailor outreach with urgency on cost savings, fast setup, and scalability for small businesses.</t>
         </is>
       </c>
     </row>
@@ -1195,14 +1175,10 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: Google_US_Search_Phone_Systems_Exact
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_Phone_Systems_Exact
 Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
 Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
 Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
@@ -1217,12 +1193,12 @@
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
 Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Phone_Systems_Exact
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Prospects actively searching for business phone systems on Google US likely seek cost-effective UCaaS solutions. They are comparing options, indicating mid to late buyer's journey stage as small businesses scaling up.</t>
+          <t>Lead actively searched for communication solutions on Google_US_Search_Phone_Systems_Exact, likely triggered by 'business phone system' keywords. Tailor outreach based on urgent need for UCaaS, IT decision maker role, and comparison of solutions for small businesses focusing on simplicity, growth, and cost savings.</t>
         </is>
       </c>
     </row>
@@ -1306,14 +1282,10 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: Affiliates_TheTop10sites
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. This lead came through a trusted third party referral or partner. 2. What the partnership suggests about product fit or integration potential. 3. How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Affiliates_TheTop10sites
 Engagement method: Referred through affiliate partner - has some context about RingCentral
 Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
 Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
@@ -1329,12 +1301,12 @@
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
 Concise sales focused campaign summary: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - TheTop10Sites.com (https://www.thetop10sites.com/business-voip/) and submitted their info through the web form or called in.
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Prospect researching business phone systems on TheTop10Sites.com followed a cost-saving lead to RingCentral. High-intent evaluation stage, likely IT decision maker.</t>
+          <t>Lead from TheTop10Sites.com referral indicates a strong product fit for UCaaS/business phone systems. Leverage this credibility to emphasize integration potential and reach out with confidence.</t>
         </is>
       </c>
     </row>
@@ -1418,14 +1390,10 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: Affiliates_BusinessBPS
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. This lead came through a trusted third party referral or partner. 2. What the partnership suggests about product fit or integration potential. 3. How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Affiliates_BusinessBPS
 Engagement method: Referred through affiliate partner - has some context about RingCentral
 Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
 Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
@@ -1441,12 +1409,12 @@
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
 Concise sales focused campaign summary: Prospect visited RingCentral Office Landing Page from a Content/Review Website - Business.com (https://www.business.com/categories/business-phone-systems/) and submitted their info through the web form or called in.
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Prospect actively seeking unified communications solution for cost savings, likely an IT decision maker. High-intent evaluation stage, engaging through low-friction affiliate link from Business.com.</t>
+          <t>Lead referred through trusted affiliate partner, indicating strong fit with RingCentral's UCaaS. Leverage partnership credibility to highlight seamless integration potential in outreach.</t>
         </is>
       </c>
     </row>
@@ -1518,14 +1486,10 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: Bing_US_Search_Brand_Exact
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Bing_US_Search_Brand_Exact
 Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
 Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
 Secondary channel: Found via RingCentral brand keyword search - direct high intent query
@@ -1536,12 +1500,12 @@
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
 Concise sales focused campaign summary: Paid Search
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Prospects actively searching for communication solutions clicked on Bing search ads for 'RingCentral' or related terms, showing high intent. Likely IT decision makers in the buying stage evaluating UCaaS options.</t>
+          <t>Lead actively searched for communication solutions, likely an IT decision maker interested in UCaaS/business phone systems. Triggered by brand keyword 'RingCentral'. Tailor outreach by emphasizing urgency for solution comparison.</t>
         </is>
       </c>
     </row>
@@ -1601,14 +1565,10 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: RCO/ACO_Price_Parity
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. This lead came through a trusted third party referral or partner. 2. What the partnership suggests about product fit or integration potential. 3. How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: RCO/ACO_Price_Parity
 Engagement method: Campaign funded through reseller marketing - likely co-branded outreach via trusted tech advisor
 Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
 Secondary channel: Event marketing - webinars, conferences, tradeshows
@@ -1616,12 +1576,12 @@
 Campaign title: RCO/ACO_Price_Parity
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Prospects engaged with the RCO/ACO_Price_Parity campaign, seeking price parity for UCaaS solutions. Likely IT decision makers exploring unified communications options, indicating a mid-stage buyer's journey.</t>
+          <t>Lead acquired via trusted VAR marketing campaign with tech advisor, indicating strong fit for UCaaS integration. Leverage referral trust &amp; ecosystem relevance to guide outreach.</t>
         </is>
       </c>
     </row>
@@ -1677,26 +1637,22 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: SEO_GoogleRC
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: SEO_GoogleRC
 Engagement method: Found us through organic search - self-directed research, comparing options
 Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
 Secondary channel: SEM/SEO driven - paid or organic search
 Campaign title: SEO_GoogleRC
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Prospects conducting self-research on Google for UCaaS options in the US found us through SEO_GoogleRC. Likely IT decision makers at the comparison stage of their buyer's journey.</t>
+          <t>Lead actively researched UCaaS solutions on Google, likely comparing options. Tailor outreach to highlight urgency, readiness, and our solution fit for IT decision makers. Campaign likely triggered by SEO_GoogleRC.</t>
         </is>
       </c>
     </row>
@@ -1752,25 +1708,21 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: Sales Generated
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The prospect attended a live event or self submitted interest. 2. What this action suggests about their current interest or goals. 3. How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Sales Generated
 Engagement method: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
 Secondary channel: Entered by sales team from internal source - low initial engagement
 Campaign title: Sales Generated
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Prospects likely sought help urgently when engaging with "Sales Generated" campaign from the US. Their high initiative suggests immediate needs, placing them in the decision-making stage of the buyer's journey.</t>
+          <t>Prospect attended a live event or self-submitted interest with high initiative, indicating an urgent need. Follow up with a consultative approach, referencing shared learning goals from the event or website domain experience.</t>
         </is>
       </c>
     </row>
@@ -1842,14 +1794,10 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: HealthcareLPformfills
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. This is a sales-sourced contact (not from prospect engagement). 2. The data source and why this contact was identified. 3. What approach might work best for cold outreach. Focus on the sales context and potential fit, not prospect behavior (since they haven't engaged).
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: HealthcareLPformfills
 Engagement method: Engagment channel not categorized - review needed to determine buyer intent
 Secondary channel: Direct website visit or form fill - proactive buyer behavior
 Lead source context: Healthcare
@@ -1859,12 +1807,12 @@
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
 Concise sales focused campaign summary: Healthcare integrated campaign
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Prospects actively sought healthcare solutions via direct website visits or form fills, showing proactive interest in HIPAA compliance. Indicates mid to late buyer's journey stages.</t>
+          <t>Sales-sourced contact from HealthcareLPformfills campaign. Identified through proactive form fill on healthcare website. Best approach: Highlight HIPAA compliance fit in US market for cold outreach.</t>
         </is>
       </c>
     </row>
@@ -1920,25 +1868,21 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand:
-            1. What the prospect was doing when they engaged with this campaign
-            2. Why they likely engaged (their intent/interest)
-            3. What this tells us about their buyer's journey stage
-            Focus on the prospect's perspective and intent, not marketing terminology.
-            IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-            Campaign Information:
-            Campaign: True_Walk_On_2024
+          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The prospect attended a live event or self submitted interest. 2. What this action suggests about their current interest or goals. 3. How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: True_Walk_On_2024
 Engagement method: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
 Secondary channel: Inbound lead without source - prospect found us directly
 Campaign title: True_Walk_On_2024
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
-            Description (max 255 characters):</t>
+Description (max 255 characters):</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>The prospect proactively sought information about "True_Walk_On_2024," indicating a high initiative and potentially urgent need. They likely engaged due to a direct interest in the campaign topic, showing an advanced stage in their buyer's journey.</t>
+          <t>Prospect engaged with True_Walk_On_2024 event or self-submitted interest, indicating high initiative &amp; possibly urgent need. Follow up by referencing shared learning goals or experiences from the event/domain.com for a consultative approach.</t>
         </is>
       </c>
     </row>
@@ -2037,7 +1981,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>201.8 chars</t>
+          <t>221.1 chars</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2002,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -2139,7 +2083,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-14 12:31:06</t>
+          <t>2025-07-14 14:01:58</t>
         </is>
       </c>
     </row>

--- a/docs/sample_report.xlsx
+++ b/docs/sample_report.xlsx
@@ -662,7 +662,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. This lead came through a trusted third party referral or partner. 2. What the partnership suggests about product fit or integration potential. 3. How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Referral Source: This lead came through a trusted third party referral or partner. • Fit/Alignment: What the partnership suggests about product fit or integration potential. • Leverage: How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Saasquatch_Verbal_USCA
@@ -679,7 +679,9 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Lead from Saasquatch_Verbal_USCA campaign via trusted partner referral signals strong product fit and potential integration with our solutions. Leverage referral trust and emphasize ecosystem relevance in outreach.</t>
+          <t>• Referral Source: Trusted third-party referral or partner (Saasquatch).
+• Fit/Alignment: Partnership implies strong product fit or integration potential.
+• Leverage: Utilize referral trust to highlight integration relevance and credibility.</t>
         </is>
       </c>
     </row>
@@ -739,7 +741,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The prospect attended a live event or self submitted interest. 2. What this action suggests about their current interest or goals. 3. How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Participation: The prospect attended a live event or self submitted interest. • Signal: What this action suggests about their current interest or goals. • Engagement Style: How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Digital_Invoca_WalkOn
@@ -754,7 +756,9 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Prospect engaged with Digital_Invoca_WalkOn, showing high initiative. Likely has urgent needs. Follow up by referencing shared event experience or learning goals from the campaign. Maintain a relationship-driven approach, emphasizing common interests.</t>
+          <t>• Participation: Prospect attended Digital_Invoca_WalkOn event.
+• Signal: Strong interest in digital solutions &amp; marketing strategies.
+• Engagement Style: Approach with tailored insights from the event, focus on mutual learning goals and shared experiences.</t>
         </is>
       </c>
     </row>
@@ -842,7 +846,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Google_US_Search_Brand_Exact
@@ -865,7 +869,9 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Lead actively searching for communication solutions, likely IT decision maker for UCaaS. Triggered by high-intent 'RingCentral' search. Tailor outreach to highlight cost savings, fast setup, and SMB growth benefits.</t>
+          <t>• Search Behavior: Lead actively searched for communication solutions, visited RingCentral site.
+• Trigger: Engaged via 'RingCentral' or product-related searches, high intent.
+• Urgency: Tailor outreach on UCaaS benefits for small businesses, stress simplicity and growth.</t>
         </is>
       </c>
     </row>
@@ -953,7 +959,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Google_US_Search_Brand_Phrase
@@ -976,7 +982,9 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Lead actively seeking UCaaS/business phone system solutions via Google search ads. High intent, brand-aware. Tailor outreach with urgency for cost savings pitch, ideal for small businesses scaling rapidly.</t>
+          <t>• Search Behavior: Lead actively searched for communication solutions, likely visited RingCentral site
+• Trigger: Engaged through 'RingCentral' or product name search, indicating high intent
+• Urgency: Tailor outreach for IT decision maker, highlight cost savings, fast setup, growth benefits</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1072,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Google_US_Search_Fax_Exact
@@ -1087,7 +1095,9 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Lead actively sought communication solutions, likely comparing business phone systems, triggered by 'business phone system' search ads. Tailor outreach with urgency on cost savings, fast setup, and scalability for small businesses.</t>
+          <t>• Search Behavior: Lead actively searched for communication solutions like 'business phone system'.
+• Trigger: Paid search campaign targeting small businesses interested in UCaaS.
+• Urgency: Tailor outreach focusing on fast setup, flexibility, cost savings, and growth opportunities.</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1185,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Google_US_Search_Phone_Systems_Exact
@@ -1198,7 +1208,9 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Lead actively searched for communication solutions on Google_US_Search_Phone_Systems_Exact, likely triggered by 'business phone system' keywords. Tailor outreach based on urgent need for UCaaS, IT decision maker role, and comparison of solutions for small businesses focusing on simplicity, growth, and cost savings.</t>
+          <t>• Search Behavior: Lead actively searching for communication solutions, likely visited our site.
+• Trigger: Searched 'business phone system' - intent triggered by cost savings pitch.
+• Urgency: Tailor outreach focusing on fast setup, flexibility, and SMB growth needs.</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1294,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. This lead came through a trusted third party referral or partner. 2. What the partnership suggests about product fit or integration potential. 3. How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Referral Source: This lead came through a trusted third party referral or partner. • Fit/Alignment: What the partnership suggests about product fit or integration potential. • Leverage: How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Affiliates_TheTop10sites
@@ -1306,7 +1318,9 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Lead from TheTop10Sites.com referral indicates a strong product fit for UCaaS/business phone systems. Leverage this credibility to emphasize integration potential and reach out with confidence.</t>
+          <t>• Referral Source: Trusted third-party referral from TheTop10Sites.com
+• Fit/Alignment: Implies strong product fit for UCaaS/business phone system
+• Leverage: Highlight partnership credibility, emphasize integration potential</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1404,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. This lead came through a trusted third party referral or partner. 2. What the partnership suggests about product fit or integration potential. 3. How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Referral Source: This lead came through a trusted third party referral or partner. • Fit/Alignment: What the partnership suggests about product fit or integration potential. • Leverage: How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Affiliates_BusinessBPS
@@ -1414,7 +1428,9 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Lead referred through trusted affiliate partner, indicating strong fit with RingCentral's UCaaS. Leverage partnership credibility to highlight seamless integration potential in outreach.</t>
+          <t>• Referral Source: Referred through trusted partner.
+• Fit/Alignment: Partnership indicates strong product fit.
+• Leverage: Highlight integration relevance, mention referral credibility.</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1502,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Bing_US_Search_Brand_Exact
@@ -1505,7 +1521,9 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Lead actively searched for communication solutions, likely an IT decision maker interested in UCaaS/business phone systems. Triggered by brand keyword 'RingCentral'. Tailor outreach by emphasizing urgency for solution comparison.</t>
+          <t>• Search Behavior: Lead actively searched for communication solutions, visited RingCentral site
+• Trigger: Bing_US_Search_Brand_Exact campaign, RingCentral brand keyword search
+• Urgency: Tailor outreach for IT decision maker, high intent, compare solutions, emphasize UCaaS benefits</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1583,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. This lead came through a trusted third party referral or partner. 2. What the partnership suggests about product fit or integration potential. 3. How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Referral Source: This lead came through a trusted third party referral or partner. • Fit/Alignment: What the partnership suggests about product fit or integration potential. • Leverage: How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: RCO/ACO_Price_Parity
@@ -1581,7 +1599,9 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>Lead acquired via trusted VAR marketing campaign with tech advisor, indicating strong fit for UCaaS integration. Leverage referral trust &amp; ecosystem relevance to guide outreach.</t>
+          <t>• Referral Source: Lead from trusted tech advisor
+• Fit/Alignment: Indicates strong fit for UCaaS solutions
+• Leverage: Highlight partnership credibility, emphasize integration potential for unified communications.</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1657,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The lead actively searched for a solution or visited our site. 2. What keyword or campaign may have triggered the engagement. 3. How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: SEO_GoogleRC
@@ -1652,7 +1672,9 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Lead actively researched UCaaS solutions on Google, likely comparing options. Tailor outreach to highlight urgency, readiness, and our solution fit for IT decision makers. Campaign likely triggered by SEO_GoogleRC.</t>
+          <t>• Search Behavior: Lead actively researching UCaaS options, found us through organic search.
+• Trigger: Likely searched keywords related to UCaaS or business phone systems.
+• Urgency: Tailor outreach based on solution readiness and immediate need for unified communications.</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1730,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The prospect attended a live event or self submitted interest. 2. What this action suggests about their current interest or goals. 3. How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Participation: The prospect attended a live event or self submitted interest. • Signal: What this action suggests about their current interest or goals. • Engagement Style: How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Sales Generated
@@ -1722,7 +1744,9 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Prospect attended a live event or self-submitted interest with high initiative, indicating an urgent need. Follow up with a consultative approach, referencing shared learning goals from the event or website domain experience.</t>
+          <t>• Participation: Prospect self-submitted interest for Sales Generated campaign. 
+• Signal: Shows high initiative and potential urgent need for sales solutions. 
+• Engagement Style: Follow up with a consultative approach, referencing shared learning goals from Sales Generated website.</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1818,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. This is a sales-sourced contact (not from prospect engagement). 2. The data source and why this contact was identified. 3. What approach might work best for cold outreach. Focus on the sales context and potential fit, not prospect behavior (since they haven't engaged).
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Source: This is a sales-sourced contact (not from prospect engagement). • Data Origin: The data source and why this contact was identified. • Approach: What approach might work best for cold outreach. Focus on the sales context and potential fit, not prospect behavior (since they haven't engaged).
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: HealthcareLPformfills
@@ -1812,7 +1836,9 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Sales-sourced contact from HealthcareLPformfills campaign. Identified through proactive form fill on healthcare website. Best approach: Highlight HIPAA compliance fit in US market for cold outreach.</t>
+          <t>• Source: Sales-sourced contact
+• Data Origin: Identified through HealthcareLPformfills campaign
+• Approach: Highlight HIPAA compliance benefits in cold outreach</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1894,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, create a concise description (max 255 characters) that helps a salesperson understand: 1. The prospect attended a live event or self submitted interest. 2. What this action suggests about their current interest or goals. 3. How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
+          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Participation: The prospect attended a live event or self submitted interest. • Signal: What this action suggests about their current interest or goals. • Engagement Style: How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: True_Walk_On_2024
@@ -1882,7 +1908,9 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Prospect engaged with True_Walk_On_2024 event or self-submitted interest, indicating high initiative &amp; possibly urgent need. Follow up by referencing shared learning goals or experiences from the event/domain.com for a consultative approach.</t>
+          <t>• Participation: Prospect self-submitted interest for True_Walk_On_2024.
+• Signal: Indicates high initiative and potentially urgent need.
+• Engagement Style: Emphasize shared experience or learning goals in a consultative follow-up approach.</t>
         </is>
       </c>
     </row>
@@ -1981,7 +2009,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>221.1 chars</t>
+          <t>248.6 chars</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2030,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -2083,7 +2111,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-14 14:01:58</t>
+          <t>2025-07-21 13:55:37</t>
         </is>
       </c>
     </row>

--- a/docs/sample_report.xlsx
+++ b/docs/sample_report.xlsx
@@ -662,13 +662,17 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Referral Source: This lead came through a trusted third party referral or partner. • Fit/Alignment: What the partnership suggests about product fit or integration potential. • Leverage: How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Referral Source: This lead came through a trusted third party referral or partner. 
+• Fit/Alignment: What the partnership suggests about product fit or integration potential. 
+• Leverage: How to use that credibility to guide outreach. 
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Saasquatch_Verbal_USCA
-Engagement method: Customer or partner referral - high trust, warm introduction
-Secondary channel: Direct verbal referral - trusted, high-conversion channel
-Campaign format: Generic email campaign engagment - intent and quality depend on content
+Engagement method: Referrals: Customer or partner referral - high trust, warm introduction
+Secondary channel: Verbal Referrals: Direct verbal referral - trusted, high-conversion channel
+Campaign format: Email Only: Generic email campaign engagment - intent and quality depend on content
 Lead source context: Saasquatch
 Campaign description: Referral
 Campaign title: Saasquatch_Verbal_USCA
@@ -679,9 +683,9 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>• Referral Source: Trusted third-party referral or partner (Saasquatch).
-• Fit/Alignment: Partnership implies strong product fit or integration potential.
-• Leverage: Utilize referral trust to highlight integration relevance and credibility.</t>
+          <t>• Referral Source: Lead originated from a trusted partner, indicating high trust and warm introduction.
+• Fit/Alignment: Partnership suggests strong product fit or integration potential with Saasquatch.
+• Leverage: Utilize referral credibility to guide outreach, emphasizing ecosystem relevance and integration possibilities.</t>
         </is>
       </c>
     </row>
@@ -741,13 +745,17 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Participation: The prospect attended a live event or self submitted interest. • Signal: What this action suggests about their current interest or goals. • Engagement Style: How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Participation: The prospect attended a live event or self submitted interest. 
+• Signal: What this action suggests about their current interest or goals. 
+• Engagement Style: How to follow up in a relationship driven or consultative way. 
+Focus on event context and tailoring outreach around shared experience or learning goals. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Digital_Invoca_WalkOn
-Engagement method: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
-Secondary channel: Inbound lead without source - prospect found us directly
-Campaign format: Generic email campaign engagment - intent and quality depend on content
+Engagement method: Walk-On: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
+Secondary channel: Walk-On: Inbound lead without source - prospect found us directly
+Campaign format: Email: Generic email campaign engagment - intent and quality depend on content
 Campaign title: Digital_Invoca_WalkOn
 Target geographic market for campaign: US
 Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
@@ -756,9 +764,9 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>• Participation: Prospect attended Digital_Invoca_WalkOn event.
-• Signal: Strong interest in digital solutions &amp; marketing strategies.
-• Engagement Style: Approach with tailored insights from the event, focus on mutual learning goals and shared experiences.</t>
+          <t>• Participation: Prospect self-submitted interest or attended an event for Digital Invoca.
+• Signal: Indicates high initiative and potentially urgent need related to Digital Invoca solutions.
+• Engagement Style: Follow up consultatively, highlighting shared learning goals or event experience.</t>
         </is>
       </c>
     </row>
@@ -846,19 +854,23 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Search Behavior: The lead actively searched for a solution or visited our site. 
+• Trigger: What keyword or campaign may have triggered the engagement. 
+• Urgency: How to tailor outreach based on urgency or solution comparison. 
+Focus on urgency, buyer readiness, and solution fit. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Google_US_Search_Brand_Exact
-Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
-Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
-Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Found via RingCentral brand keyword search - direct high intent query
-Specific engagement context: Searched 'RingCentral' or product names - brand aware, high intent
-Target customer profile campaign identifier: Small business scaling - fast setup, flexible usage, and business growth
-Campaign format: Ad campaign response - varying intent based on ad type
-Lead source context: Google Ads - paid search intent
-Value proposition focus: SMB messaging - simplicity and growth focus
+Engagement method: Paid Search: Clicked on search ads - actively searching for communication solutions with high intent
+Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
+Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Brand Search: Found via RingCentral brand keyword search - direct high intent query
+Specific engagement context: SEM - Brand: Searched 'RingCentral' or product names - brand aware, high intent
+Target customer profile campaign identifier: Hello to Growing Your Business: Small business scaling - fast setup, flexible usage, and business growth
+Campaign format: Advertisement: Ad campaign response - varying intent based on ad type
+Lead source context: Google: Google Ads - paid search intent
+Value proposition focus: Easily set up and grow my business: SMB messaging - simplicity and growth focus
 Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Exact
 Campaign title: Google_US_Search_Brand_Exact
 Target geographic market for campaign: US
@@ -869,9 +881,9 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>• Search Behavior: Lead actively searched for communication solutions, visited RingCentral site.
-• Trigger: Engaged via 'RingCentral' or product-related searches, high intent.
-• Urgency: Tailor outreach on UCaaS benefits for small businesses, stress simplicity and growth.</t>
+          <t>• Search Behavior: Lead actively searched for communication solutions, indicating high intent.
+• Trigger: Engaged through 'RingCentral' or related searches, showing brand awareness.
+• Urgency: Tailor outreach for quick setup and growth benefits to meet SMB scaling needs.</t>
         </is>
       </c>
     </row>
@@ -959,19 +971,23 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Search Behavior: The lead actively searched for a solution or visited our site. 
+• Trigger: What keyword or campaign may have triggered the engagement. 
+• Urgency: How to tailor outreach based on urgency or solution comparison. 
+Focus on urgency, buyer readiness, and solution fit. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Google_US_Search_Brand_Phrase
-Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
-Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
-Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Found via RingCentral brand keyword search - direct high intent query
-Specific engagement context: Searched 'RingCentral' or product names - brand aware, high intent
-Target customer profile campaign identifier: Small business scaling - fast setup, flexible usage, and business growth
-Campaign format: Ad campaign response - varying intent based on ad type
-Lead source context: Google Ads - paid search intent
-Value proposition focus: SMB messaging - simplicity and growth focus
+Engagement method: Paid Search: Clicked on search ads - actively searching for communication solutions with high intent
+Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
+Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Brand Search: Found via RingCentral brand keyword search - direct high intent query
+Specific engagement context: SEM - Brand: Searched 'RingCentral' or product names - brand aware, high intent
+Target customer profile campaign identifier: Hello to Growing Your Business: Small business scaling - fast setup, flexible usage, and business growth
+Campaign format: Advertisement: Ad campaign response - varying intent based on ad type
+Lead source context: Google: Google Ads - paid search intent
+Value proposition focus: Easily set up and grow my business: SMB messaging - simplicity and growth focus
 Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Phrase
 Campaign title: Google_US_Search_Brand_Phrase
 Target geographic market for campaign: US
@@ -982,9 +998,9 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>• Search Behavior: Lead actively searched for communication solutions, likely visited RingCentral site
-• Trigger: Engaged through 'RingCentral' or product name search, indicating high intent
-• Urgency: Tailor outreach for IT decision maker, highlight cost savings, fast setup, growth benefits</t>
+          <t>• Search Behavior: Prospect actively searched for communication solutions, likely a small business decision-maker exploring UCaaS options.
+• Trigger: Engaged via Google Ads, indicating high intent for RingCentral's UCaaS solutions.
+• Urgency: Tailor outreach with a focus on fast setup, cost savings, and scalability to meet growing business needs.</t>
         </is>
       </c>
     </row>
@@ -1072,19 +1088,23 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Search Behavior: The lead actively searched for a solution or visited our site. 
+• Trigger: What keyword or campaign may have triggered the engagement. 
+• Urgency: How to tailor outreach based on urgency or solution comparison. 
+Focus on urgency, buyer readiness, and solution fit. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Google_US_Search_Fax_Exact
-Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
-Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
-Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: SEM/SEO driven - paid or organic search
-Specific engagement context: Searched generic terms like 'business phone system' - comparing solutions
-Target customer profile campaign identifier: Small business scaling - fast setup, flexible usage, and business growth
-Campaign format: Ad campaign response - varying intent based on ad type
-Lead source context: Google Ads - paid search intent
-Value proposition focus: SMB messaging - simplicity and growth focus
+Engagement method: Paid Search: Clicked on search ads - actively searching for communication solutions with high intent
+Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
+Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Search Engines: SEM/SEO driven - paid or organic search
+Specific engagement context: SEM - Non-Brand: Searched generic terms like 'business phone system' - comparing solutions
+Target customer profile campaign identifier: Hello to Growing Your Business: Small business scaling - fast setup, flexible usage, and business growth
+Campaign format: Advertisement: Ad campaign response - varying intent based on ad type
+Lead source context: Google: Google Ads - paid search intent
+Value proposition focus: Easily set up and grow my business: SMB messaging - simplicity and growth focus
 Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Fax_Exact
 Campaign title: Google_US_Search_Fax_Exact
 Target geographic market for campaign: US
@@ -1095,9 +1115,9 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>• Search Behavior: Lead actively searched for communication solutions like 'business phone system'.
-• Trigger: Paid search campaign targeting small businesses interested in UCaaS.
-• Urgency: Tailor outreach focusing on fast setup, flexibility, cost savings, and growth opportunities.</t>
+          <t>• Search Behavior: Prospect actively searched for communication solutions; likely comparing options like business phone systems.
+• Trigger: Engagement possibly triggered by generic terms related to 'business phone system' in SEM non-brand ads.
+• Urgency: Tailor outreach emphasizing RingEX UCaaS fit for IT decision makers seeking cost-effective cloud migration solutions.</t>
         </is>
       </c>
     </row>
@@ -1185,19 +1205,23 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Search Behavior: The lead actively searched for a solution or visited our site. 
+• Trigger: What keyword or campaign may have triggered the engagement. 
+• Urgency: How to tailor outreach based on urgency or solution comparison. 
+Focus on urgency, buyer readiness, and solution fit. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Google_US_Search_Phone_Systems_Exact
-Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
-Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
-Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: SEM/SEO driven - paid or organic search
-Specific engagement context: Searched generic terms like 'business phone system' - comparing solutions
-Target customer profile campaign identifier: Small business scaling - fast setup, flexible usage, and business growth
-Campaign format: Ad campaign response - varying intent based on ad type
-Lead source context: Google Ads - paid search intent
-Value proposition focus: SMB messaging - simplicity and growth focus
+Engagement method: Paid Search: Clicked on search ads - actively searching for communication solutions with high intent
+Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
+Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Search Engines: SEM/SEO driven - paid or organic search
+Specific engagement context: SEM - Non-Brand: Searched generic terms like 'business phone system' - comparing solutions
+Target customer profile campaign identifier: Hello to Growing Your Business: Small business scaling - fast setup, flexible usage, and business growth
+Campaign format: Advertisement: Ad campaign response - varying intent based on ad type
+Lead source context: Google: Google Ads - paid search intent
+Value proposition focus: Easily set up and grow my business: SMB messaging - simplicity and growth focus
 Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Phone_Systems_Exact
 Campaign title: Google_US_Search_Phone_Systems_Exact
 Target geographic market for campaign: US
@@ -1208,9 +1232,9 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>• Search Behavior: Lead actively searching for communication solutions, likely visited our site.
-• Trigger: Searched 'business phone system' - intent triggered by cost savings pitch.
-• Urgency: Tailor outreach focusing on fast setup, flexibility, and SMB growth needs.</t>
+          <t>• Search Behavior: Prospect actively searched for communication solutions, likely comparing options. 
+• Trigger: Engagement possibly triggered by generic terms like 'business phone system.' 
+• Urgency: Tailor outreach with urgency in mind for potential IT decision makers considering RingEX UCaaS.</t>
         </is>
       </c>
     </row>
@@ -1294,19 +1318,23 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Referral Source: This lead came through a trusted third party referral or partner. • Fit/Alignment: What the partnership suggests about product fit or integration potential. • Leverage: How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Referral Source: This lead came through a trusted third party referral or partner. 
+• Fit/Alignment: What the partnership suggests about product fit or integration potential. 
+• Leverage: How to use that credibility to guide outreach. 
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Affiliates_TheTop10sites
-Engagement method: Referred through affiliate partner - has some context about RingCentral
-Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
-Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Referred by direct affiliate - warm intro with initial context
-Specific engagement context: Affiliate referral - cost-per-lead, mid-intent form fill
-Target customer profile program classification: Ongoing evergreen campaign - continous lead flow
-Target customer profile and strategy: Targeting small business (1-499 employees) - faster sales cycle, price sensitive
+Engagement method: Affiliates: Referred through affiliate partner - has some context about RingCentral
+Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
+Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Direct Affiliates: Referred by direct affiliate - warm intro with initial context
+Specific engagement context: Affiliates - CPL: Affiliate referral - cost-per-lead, mid-intent form fill
+Target customer profile program classification: Greenfield: Ongoing evergreen campaign - continous lead flow
+Target customer profile and strategy: RingEX SMB Acquisition: Targeting small business (1-499 employees) - faster sales cycle, price sensitive
 Lead source context: Better Impression (US)
-Company size segment: 20-99 employees - growing company, scalability important
+Company size segment: SMB: 20-99 employees - growing company, scalability important
 Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
 Campaign description: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - TheTop10Sites.com (https://www.thetop10sites.com/business-voip/) and submitted their info through the web form or called in.
 Campaign title: Affiliates_TheTop10sites
@@ -1318,9 +1346,9 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>• Referral Source: Trusted third-party referral from TheTop10Sites.com
-• Fit/Alignment: Implies strong product fit for UCaaS/business phone system
-• Leverage: Highlight partnership credibility, emphasize integration potential</t>
+          <t>• Referral Source: Referred via trusted affiliate partner TheTop10Sites.com
+• Fit/Alignment: Indicates interest in RingEX UCaaS for SMB, IT decision maker
+• Leverage: Highlight integration potential, mention referral for credibility</t>
         </is>
       </c>
     </row>
@@ -1404,19 +1432,23 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Referral Source: This lead came through a trusted third party referral or partner. • Fit/Alignment: What the partnership suggests about product fit or integration potential. • Leverage: How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Referral Source: This lead came through a trusted third party referral or partner. 
+• Fit/Alignment: What the partnership suggests about product fit or integration potential. 
+• Leverage: How to use that credibility to guide outreach. 
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Affiliates_BusinessBPS
-Engagement method: Referred through affiliate partner - has some context about RingCentral
-Cross channel marketing integration indicator: Migration from on-premise focus - cost savings pitch
-Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Referred by direct affiliate - warm intro with initial context
-Specific engagement context: Clicked cost-per-click affiliate link - low-friction awareness
-Target customer profile program classification: Ongoing evergreen campaign - continous lead flow
-Target customer profile and strategy: Targeting small business (1-499 employees) - faster sales cycle, price sensitive
+Engagement method: Affiliates: Referred through affiliate partner - has some context about RingCentral
+Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
+Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Direct Affiliates: Referred by direct affiliate - warm intro with initial context
+Specific engagement context: Affiliates - CPC: Clicked cost-per-click affiliate link - low-friction awareness
+Target customer profile program classification: Greenfield: Ongoing evergreen campaign - continous lead flow
+Target customer profile and strategy: RingEX SMB Acquisition: Targeting small business (1-499 employees) - faster sales cycle, price sensitive
 Lead source context: Purch (Business News Daily - VOIP)
-Company size segment: 20-99 employees - growing company, scalability important
+Company size segment: SMB: 20-99 employees - growing company, scalability important
 Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
 Campaign description: Prospect visited RingCentral Office Landing Page from a Content/Review Website - Business.com (https://www.business.com/categories/business-phone-systems/) and submitted their info through the web form or called in.
 Campaign title: Affiliates_BusinessBPS
@@ -1428,9 +1460,9 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>• Referral Source: Referred through trusted partner.
-• Fit/Alignment: Partnership indicates strong product fit.
-• Leverage: Highlight integration relevance, mention referral credibility.</t>
+          <t>- Referral Source: Trusted third party referral from Business.com - indicates interest in RingEX UCaaS
+- Fit/Alignment: Partnership suggests strong product fit or integration potential for RingCentral
+- Leverage: Use referral credibility to guide outreach with focus on integration benefits</t>
         </is>
       </c>
     </row>
@@ -1502,14 +1534,18 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Search Behavior: The lead actively searched for a solution or visited our site. 
+• Trigger: What keyword or campaign may have triggered the engagement. 
+• Urgency: How to tailor outreach based on urgency or solution comparison. 
+Focus on urgency, buyer readiness, and solution fit. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Bing_US_Search_Brand_Exact
-Engagement method: Clicked on search ads - actively searching for communication solutions with high intent
-Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Found via RingCentral brand keyword search - direct high intent query
-Specific engagement context: Searched 'RingCentral' or product names - brand aware, high intent
+Engagement method: Paid Search: Clicked on search ads - actively searching for communication solutions with high intent
+Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Brand Search: Found via RingCentral brand keyword search - direct high intent query
+Specific engagement context: SEM - Brand: Searched 'RingCentral' or product names - brand aware, high intent
 Lead source context: Bing
 Campaign description: Paid Search
 Campaign title: Bing_US_Search_Brand_Exact
@@ -1521,9 +1557,9 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>• Search Behavior: Lead actively searched for communication solutions, visited RingCentral site
-• Trigger: Bing_US_Search_Brand_Exact campaign, RingCentral brand keyword search
-• Urgency: Tailor outreach for IT decision maker, high intent, compare solutions, emphasize UCaaS benefits</t>
+          <t>• Search Behavior: Lead actively searched for communication solutions, likely a tech-savvy IT decision maker interested in RingEX UCaaS.  
+• Trigger: Engaged via Bing_US_Search_Brand_Exact campaign, showing high intent through brand keyword search.  
+• Urgency: Tailor outreach addressing urgent UCaaS needs, emphasizing RingEX fit for seamless communication solutions.</t>
         </is>
       </c>
     </row>
@@ -1583,13 +1619,17 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Referral Source: This lead came through a trusted third party referral or partner. • Fit/Alignment: What the partnership suggests about product fit or integration potential. • Leverage: How to use that credibility to guide outreach. Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Referral Source: This lead came through a trusted third party referral or partner. 
+• Fit/Alignment: What the partnership suggests about product fit or integration potential. 
+• Leverage: How to use that credibility to guide outreach. 
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: RCO/ACO_Price_Parity
-Engagement method: Campaign funded through reseller marketing - likely co-branded outreach via trusted tech advisor
-Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Event marketing - webinars, conferences, tradeshows
+Engagement method: VAR MDF: Campaign funded through reseller marketing - likely co-branded outreach via trusted tech advisor
+Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Events: Event marketing - webinars, conferences, tradeshows
 Lead source context: VAR Marketing
 Campaign title: RCO/ACO_Price_Parity
 Target geographic market for campaign: US
@@ -1599,9 +1639,9 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>• Referral Source: Lead from trusted tech advisor
-• Fit/Alignment: Indicates strong fit for UCaaS solutions
-• Leverage: Highlight partnership credibility, emphasize integration potential for unified communications.</t>
+          <t>• Referral Source: Trusted tech advisor referred this lead, suggesting strong credibility and interest in RingEX UCaaS. 
+• Fit/Alignment: Partnership indicates potential for seamless integration, highlighting product fit for unified communications. 
+• Leverage: Emphasize the referral trust to position RingEX as a natural choice for their tech ecosystem.</t>
         </is>
       </c>
     </row>
@@ -1657,13 +1697,17 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Search Behavior: The lead actively searched for a solution or visited our site. • Trigger: What keyword or campaign may have triggered the engagement. • Urgency: How to tailor outreach based on urgency or solution comparison. Focus on urgency, buyer readiness, and solution fit.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Search Behavior: The lead actively searched for a solution or visited our site. 
+• Trigger: What keyword or campaign may have triggered the engagement. 
+• Urgency: How to tailor outreach based on urgency or solution comparison. 
+Focus on urgency, buyer readiness, and solution fit. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: SEO_GoogleRC
-Engagement method: Found us through organic search - self-directed research, comparing options
-Product interest: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: SEM/SEO driven - paid or organic search
+Engagement method: Organic Search: Found us through organic search - self-directed research, comparing options
+Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
+Secondary channel: Search Engines: SEM/SEO driven - paid or organic search
 Campaign title: SEO_GoogleRC
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
@@ -1672,9 +1716,9 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>• Search Behavior: Lead actively researching UCaaS options, found us through organic search.
-• Trigger: Likely searched keywords related to UCaaS or business phone systems.
-• Urgency: Tailor outreach based on solution readiness and immediate need for unified communications.</t>
+          <t>• Search Behavior: Lead actively searched for a UCaaS/business phone system solution or visited our site.
+• Trigger: Potential keyword triggers include "UCaaS providers" or "business phone systems comparison."
+• Urgency: Tailor outreach based on urgency for IT decision makers evaluating unified communications solutions.</t>
         </is>
       </c>
     </row>
@@ -1730,12 +1774,16 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Participation: The prospect attended a live event or self submitted interest. • Signal: What this action suggests about their current interest or goals. • Engagement Style: How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Participation: The prospect attended a live event or self submitted interest. 
+• Signal: What this action suggests about their current interest or goals. 
+• Engagement Style: How to follow up in a relationship driven or consultative way. 
+Focus on event context and tailoring outreach around shared experience or learning goals. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Sales Generated
-Engagement method: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
-Secondary channel: Entered by sales team from internal source - low initial engagement
+Engagement method: Walk-On: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
+Secondary channel: Sales Generated: Entered by sales team from internal source - low initial engagement
 Campaign title: Sales Generated
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
@@ -1744,9 +1792,9 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>• Participation: Prospect self-submitted interest for Sales Generated campaign. 
-• Signal: Shows high initiative and potential urgent need for sales solutions. 
-• Engagement Style: Follow up with a consultative approach, referencing shared learning goals from Sales Generated website.</t>
+          <t>• Participation: Prospects showed high initiative by self-submitting interest or attending an event related to our product. 
+• Signal: Indicates urgent need or strong interest in addressing specific challenges related to our product. 
+• Engagement Style: Follow up with a consultative approach, focusing on shared experiences or learning goals from the event.</t>
         </is>
       </c>
     </row>
@@ -1818,14 +1866,18 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Source: This is a sales-sourced contact (not from prospect engagement). • Data Origin: The data source and why this contact was identified. • Approach: What approach might work best for cold outreach. Focus on the sales context and potential fit, not prospect behavior (since they haven't engaged).
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Source: This is a sales-sourced contact (not from prospect engagement). 
+• Data Origin: The data source and why this contact was identified. 
+• Approach: What approach might work best for cold outreach. 
+Focus on the sales context and potential fit, not prospect behavior (since they haven't engaged). 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: HealthcareLPformfills
-Engagement method: Engagment channel not categorized - review needed to determine buyer intent
-Secondary channel: Direct website visit or form fill - proactive buyer behavior
+Engagement method: Other: Engagment channel not categorized - review needed to determine buyer intent
+Secondary channel: website: Direct website visit or form fill - proactive buyer behavior
 Lead source context: Healthcare
-Industry context: Healthcare industry - HIPAA compilance needs
+Industry context: Healthcare: Healthcare industry - HIPAA compilance needs
 Campaign description: Healthcare integrated campaign
 Campaign title: HealthcareLPformfills
 Target geographic market for campaign: US
@@ -1837,8 +1889,8 @@
       <c r="W14" t="inlineStr">
         <is>
           <t>• Source: Sales-sourced contact
-• Data Origin: Identified through HealthcareLPformfills campaign
-• Approach: Highlight HIPAA compliance benefits in cold outreach</t>
+• Data Origin: Identified from Healthcare industry context 
+• Approach: Personalized outreach highlighting healthcare product benefits</t>
         </is>
       </c>
     </row>
@@ -1894,12 +1946,16 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Based on the following campaign information, help a salesperson understand (format as exactly 3 bullet points with the specified category labels, total 255 characters max): • Participation: The prospect attended a live event or self submitted interest. • Signal: What this action suggests about their current interest or goals. • Engagement Style: How to follow up in a relationship driven or consultative way. Focus on event context and tailoring outreach around shared experience or learning goals.
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
+• Participation: The prospect attended a live event or self submitted interest. 
+• Signal: What this action suggests about their current interest or goals. 
+• Engagement Style: How to follow up in a relationship driven or consultative way. 
+Focus on event context and tailoring outreach around shared experience or learning goals. 
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: True_Walk_On_2024
-Engagement method: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
-Secondary channel: Inbound lead without source - prospect found us directly
+Engagement method: Walk-On: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
+Secondary channel: Walk-On: Inbound lead without source - prospect found us directly
 Campaign title: True_Walk_On_2024
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
@@ -1908,9 +1964,9 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>• Participation: Prospect self-submitted interest for True_Walk_On_2024.
-• Signal: Indicates high initiative and potentially urgent need.
-• Engagement Style: Emphasize shared experience or learning goals in a consultative follow-up approach.</t>
+          <t>• Participation: Prospect self-submitted interest or found us directly without source.
+• Signal: Indicates high initiative and potentially urgent need related to our product.
+• Engagement Style: Follow up in a consultative manner, acknowledging their proactive approach and addressing their urgent needs.</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2065,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>248.6 chars</t>
+          <t>307.3 chars</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2086,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -2111,7 +2167,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-21 13:55:37</t>
+          <t>2025-07-22 12:39:42</t>
         </is>
       </c>
     </row>

--- a/docs/sample_report.xlsx
+++ b/docs/sample_report.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -457,8 +457,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="19" customWidth="1" min="6" max="6"/>
@@ -467,7 +467,7 @@
     <col width="21" customWidth="1" min="9" max="9"/>
     <col width="32" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="29" customWidth="1" min="12" max="12"/>
     <col width="36" customWidth="1" min="13" max="13"/>
     <col width="13" customWidth="1" min="14" max="14"/>
     <col width="36" customWidth="1" min="15" max="15"/>
@@ -658,21 +658,30 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Referral Source: This lead came through a trusted third party referral or partner. 
-• Fit/Alignment: What the partnership suggests about product fit or integration potential. 
-• Leverage: How to use that credibility to guide outreach. 
-Focus on leveraging the referral trust and highlighting integration or ecosystem relevance. 
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Saasquatch_Verbal_USCA
-Engagement method: Referrals: Customer or partner referral - high trust, warm introduction
-Secondary channel: Verbal Referrals: Direct verbal referral - trusted, high-conversion channel
-Campaign format: Email Only: Generic email campaign engagment - intent and quality depend on content
+Engagement method: Referrals (Customer or partner referral - high trust, warm introduction)
+Secondary channel: Verbal Referrals (Direct verbal referral - trusted, high-conversion channel)
+Campaign format: Email Only (Generic email campaign engagment - intent and quality depend on content)
 Lead source context: Saasquatch
 Campaign description: Referral
 Campaign title: Saasquatch_Verbal_USCA
@@ -683,37 +692,37 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>• Referral Source: Lead originated from a trusted partner, indicating high trust and warm introduction.
-• Fit/Alignment: Partnership suggests strong product fit or integration potential with Saasquatch.
-• Leverage: Utilize referral credibility to guide outreach, emphasizing ecosystem relevance and integration possibilities.</t>
+          <t>• [Referral Source]: Partner referral with high trust, warm intro from Saasquatch.
+• [Fit/ Alignment]: Indicates strong product fit and ecosystem alignment.
+• [Leverage]: Use partner credibility to emphasize fit during outreach for effective engagement.</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7012H000001gtUFQAY</t>
+          <t>7012H000000sfsHQAQ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Digital_Invoca_WalkOn</t>
+          <t>SalesGenerated_ZoomInfo_Integration</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Walk-On</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>Sales Generated</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lead or contact records created through ZoomInfo/SFDC Integration</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Walk-On</t>
+          <t>Sales Generated</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -726,7 +735,11 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>ZoomInfo</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -736,141 +749,918 @@
         </is>
       </c>
       <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Lead or contact records created through ZoomInfo/SFDC Integration</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Source]: What the sales sourcing method is and explain why this contact was selected for outreach
+• [Data Origin]: The prospect profile and qualification criteria that made them a target
+• [Approach]: A specific cold outreach tactics, timing, and personalization strategy
+Focus on the sales context and potential fit not prospect behavior (since they haven't engaged).
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: SalesGenerated_ZoomInfo_Integration
+Engagement method: Sales Generated (Sales rep created contact from data provider - no direct prospect engagement yet)
+Secondary channel: Sales Generated (Entered by sales team from internal source - low initial engagement)
+Lead source context: ZoomInfo (B2B contact database - sales prospecting tool)
+Campaign description: Lead or contact records created through ZoomInfo/SFDC Integration
+Campaign title: SalesGenerated_ZoomInfo_Integration
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Lead or contact records created through ZoomInfo/SFDC Integration
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>• [Source]: Sales rep selected this contact from ZoomInfo/SFDC Integration for outreach due to US market fit
+• [Data Origin]: Criteria aligned with B2B target profiles, making them a priority for sales engagement
+• [Approach]: Craft personalized cold outreach leveraging internal insights, timing aligned with market relevance</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7012H000001OMDgQAO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Affiliates_RingCentralOffice_PZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from Partnerize banner placements and submitted their info through the web form or called in using mobile/ tablet.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Partnerize</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Affiliates - CPA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Partnerize (US)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from Partnerize banner placements and submitted their info through the web form or called in using mobile/ tablet.</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
         <v>1</v>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Affiliates_RingCentralOffice_PZ
+Engagement method: Affiliates (Referred through affiliate partner - has some context about RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Partnerize (Affiliate referral through Partnerize platform)
+Specific engagement context: Affiliates - CPA (Affiliate referral - cost-per-action model, deeper engagement)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Lead source context: Partnerize (US)
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Campaign description: Prospect visited RingCentral Office Landing Page from Partnerize banner placements and submitted their info through the web form or called in using mobile/ tablet.
+Campaign title: Affiliates_RingCentralOffice_PZ
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Prospect visited RingCentral Office Landing Page from Partnerize banner placements and submitted their info through the web form or called in using mobile/ tablet.
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Affiliate partner with RingCentral context, providing credibility and interest in RingEX.
+• [Fit/ Alignment]: Indicates strong fit for RingEX UCaaS system, likely IT decision maker, potential for smooth integration.
+• [Leverage]: Highlight RingEX benefits aligned with SMB needs, leverage affiliate referral to emphasize trust and integration ease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>7012H000001ONxWQAW</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Affiliates_TrafficPoint_VP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - Trafficpoint.com (http://top5voipproviders.com/reviews/ringcentral/) and submitted their info through the web form or called in.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Direct Affiliates</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Affiliates - CPL</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>TrafficPoint</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - Trafficpoint.com (http://top5voipproviders.com/reviews/ringcentral/) and submitted their info through the web form or called in.</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Affiliates_TrafficPoint_VP
+Engagement method: Affiliates (Referred through affiliate partner - has some context about RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Direct Affiliates (Referred by direct affiliate - warm intro with initial context)
+Specific engagement context: Affiliates - CPL (Affiliate referral - cost-per-lead, mid-intent form fill)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Lead source context: TrafficPoint
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
+Campaign description: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - Trafficpoint.com (http://top5voipproviders.com/reviews/ringcentral/) and submitted their info through the web form or called in.
+Campaign title: Affiliates_TrafficPoint_VP
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - Trafficpoint.com (http://top5voipproviders.com/reviews/ringcentral/) and submitted their info through the web form or called in.
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Referred by affiliate partner TrafficPoint, offering credibility from RingCentral comparison site. 
+• [Fit/ Alignment]: Indicates strong alignment with RingEX UCaaS as SMB Acquisition campaign targets small businesses evaluating UC solutions. 
+• [Leverage]: Use partner credibility to emphasize RingEX benefits for SMBs in outreach, focusing on integration and cost effectiveness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>7012H000001OZyfQAG</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Affiliates_Natural_Intelligence_CPO_Office</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website (www.top10bestvoipproviders.com) and submitted their info through the web form or called in.
+Hide Section - Attributes and TrackingAttributes and Tracking</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Direct Affiliates</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Affiliates - CPL</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Natural Intelligence US &amp; CA</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website (www.top10bestvoipproviders.com) and submitted their info through the web form or called in.
+Hide Section - Attributes and TrackingAttributes and Tracking</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Affiliates_Natural_Intelligence_CPO_Office
+Engagement method: Affiliates (Referred through affiliate partner - has some context about RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Direct Affiliates (Referred by direct affiliate - warm intro with initial context)
+Specific engagement context: Affiliates - CPL (Affiliate referral - cost-per-lead, mid-intent form fill)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Lead source context: Natural Intelligence US &amp; CA
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
+Campaign description: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website (www.top10bestvoipproviders.com) and submitted their info through the web form or called in.
+Hide Section - Attributes and TrackingAttributes and Tracking
+Campaign title: Affiliates_Natural_Intelligence_CPO_Office
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website (www.top10bestvoipproviders.com) and submitted their info through the web form or called in.
+Hide Section - Attributes and TrackingAttributes and Tracking
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Referred from top10bestvoipproviders.com, showcasing interest in RingEX via affiliate partners
+• [Fit/ Alignment]: Indicates strong fit for RingCentral Office in SMB market, seamless integration potential
+• [Leverage]: Use affiliate credibility to emphasize RingEX benefits for SMBs, highlight easy integration for a tailored pitch</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7012H000001gtUFQAY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Digital_Invoca_WalkOn</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Walk-On</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Walk-On</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R7" t="b">
         <v>1</v>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Participation: The prospect attended a live event or self submitted interest. 
-• Signal: What this action suggests about their current interest or goals. 
-• Engagement Style: How to follow up in a relationship driven or consultative way. 
-Focus on event context and tailoring outreach around shared experience or learning goals. 
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Participation]: The prospect attended a live event or self submitted interest
+• [Signal]: What this action suggests about their buying stage and solution priorities based on event engagement
+• [Engagement Style]: How to follow up in a relationship driven or consultative way
+Focus on event context and tailoring outreach around shared experience or learning goals.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Digital_Invoca_WalkOn
-Engagement method: Walk-On: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
-Secondary channel: Walk-On: Inbound lead without source - prospect found us directly
-Campaign format: Email: Generic email campaign engagment - intent and quality depend on content
+Engagement method: Walk-On (Self-submitted or inbound lead without campaign - high initiative, potentially urgent need)
+Secondary channel: Walk-On (Inbound lead without source - prospect found us directly)
+Campaign format: Email (Generic email campaign engagment - intent and quality depend on content)
 Campaign title: Digital_Invoca_WalkOn
 Target geographic market for campaign: US
 Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>• Participation: Prospect self-submitted interest or attended an event for Digital Invoca.
-• Signal: Indicates high initiative and potentially urgent need related to Digital Invoca solutions.
-• Engagement Style: Follow up consultatively, highlighting shared learning goals or event experience.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>• [Participation]: Prospect self-submitted interest or attended an event. 
+• [Signal]: Indicates high initiative and potentially urgent need. 
+• [Engagement Style]: Follow up in a relationship-driven or consultative manner, focusing on shared experiences or learning goals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7012H000001gtUKQAY</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Digital_Invoca_Missing_Attribution</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>WIP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Engagement]: What the prospect was doing when they engaged with this campaign
+• [Intent/ Interest]: Why they likely engaged (their intent or product interest)
+• [Stage]: What this reveals about their buyer's journey stage
+Focus on the prospect's perspective and intent, not marketing terminology.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Digital_Invoca_Missing_Attribution
+Engagement method: WIP
+Secondary channel: Other (Uncategorized sub-channel)
+Campaign title: Digital_Invoca_Missing_Attribution
+Target geographic market for campaign: US
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>• [Engagement]: Prospect engaged with Digital_Invoca_Missing_Attribution  
+• [Intent/ Interest]: Likely intrigued by digital attribution solutions  
+• [Stage]: Indicates mid to late-stage buyer researching attribution tools</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7012H000001hV1fQAE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PARTNER_TO_SALES_CAMPAIGN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Leads that were converted from Partner Lead to Sales Lead after 180 day protection period</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Leads that were converted from Partner Lead to Sales Lead after 180 day protection period</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>9</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Source]: What the sales sourcing method is and explain why this contact was selected for outreach
+• [Data Origin]: The prospect profile and qualification criteria that made them a target
+• [Approach]: A specific cold outreach tactics, timing, and personalization strategy
+Focus on the sales context and potential fit not prospect behavior (since they haven't engaged).
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: PARTNER_TO_SALES_CAMPAIGN
+Engagement method: Other (Engagment channel not categorized - review needed to determine buyer intent)
+Secondary channel: Other (Uncategorized sub-channel)
+Campaign description: Leads that were converted from Partner Lead to Sales Lead after 180 day protection period
+Campaign title: PARTNER_TO_SALES_CAMPAIGN
+Target geographic market for campaign: US
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Concise sales focused campaign summary: Leads that were converted from Partner Lead to Sales Lead after 180 day protection period
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>• [Source]: Leads converted from Partner to Sales Lead after 180-day protection period, indicating active interest post partnership engagement.
+• [Data Origin]: Highly qualified prospects meeting conversion criteria post nurturing from Partner program interactions.
+• [Approach]: Initiate timely, personalized outreach highlighting seamless transition, emphasizing mutual benefits, and leveraging past engagement history.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7012H000001hVwnQAE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Google_CA_NEW_Search_Brand_Exact</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_CA_NEW_Search_Brand_Exact</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Brand Search</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Hello to Growing Your Business</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Easily set up and grow my business</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_CA_NEW_Search_Brand_Exact</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_CA_NEW_Search_Brand_Exact
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Target customer profile campaign identifier: Hello to Growing Your Business (Small business scaling - fast setup, flexible usage, and business growth)
+Campaign format: Advertisement (Ad campaign response - varying intent based on ad type)
+Lead source context: Google (Google Ads - paid search intent)
+Value proposition focus: Easily set up and grow my business (SMB messaging - simplicity and growth focus)
+Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_CA_NEW_Search_Brand_Exact
+Campaign title: Google_CA_NEW_Search_Brand_Exact
+Target geographic market for campaign: CA
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_CA_NEW_Search_Brand_Exact
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: RingCentral or related brand keyword likely sparked engagement
+• [Urgency]: Tailor outreach to address immediate communication needs and highlight cost savings with RingEX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>7012H000001hVwqQAE</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Google_US_Search_Brand_Exact</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Paid Search</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Advertisement</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Exact</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Brand Search</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>SEM - Brand</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>MVP/PBX to Cloud</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>RingEX</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Hello to Growing Your Business</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Google</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Easily set up and grow my business</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="R4" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
         <is>
           <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Exact</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Search Behavior: The lead actively searched for a solution or visited our site. 
-• Trigger: What keyword or campaign may have triggered the engagement. 
-• Urgency: How to tailor outreach based on urgency or solution comparison. 
-Focus on urgency, buyer readiness, and solution fit. 
+      <c r="U11" t="n">
+        <v>21</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Google_US_Search_Brand_Exact
-Engagement method: Paid Search: Clicked on search ads - actively searching for communication solutions with high intent
-Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
-Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Brand Search: Found via RingCentral brand keyword search - direct high intent query
-Specific engagement context: SEM - Brand: Searched 'RingCentral' or product names - brand aware, high intent
-Target customer profile campaign identifier: Hello to Growing Your Business: Small business scaling - fast setup, flexible usage, and business growth
-Campaign format: Advertisement: Ad campaign response - varying intent based on ad type
-Lead source context: Google: Google Ads - paid search intent
-Value proposition focus: Easily set up and grow my business: SMB messaging - simplicity and growth focus
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Target customer profile campaign identifier: Hello to Growing Your Business (Small business scaling - fast setup, flexible usage, and business growth)
+Campaign format: Advertisement (Ad campaign response - varying intent based on ad type)
+Lead source context: Google (Google Ads - paid search intent)
+Value proposition focus: Easily set up and grow my business (SMB messaging - simplicity and growth focus)
 Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Exact
 Campaign title: Google_US_Search_Brand_Exact
 Target geographic market for campaign: US
@@ -879,115 +1669,124 @@
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>• Search Behavior: Lead actively searched for communication solutions, indicating high intent.
-• Trigger: Engaged through 'RingCentral' or related searches, showing brand awareness.
-• Urgency: Tailor outreach for quick setup and growth benefits to meet SMB scaling needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Brand keyword search or product name likely triggered engagement
+• [Urgency]: Tailor outreach with a focus on solution fit and urgency for unified communications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>7012H000001hVwrQAE</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Google_US_Search_Brand_Phrase</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Paid Search</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Advertisement</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Phrase</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Brand Search</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>SEM - Brand</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>MVP/PBX to Cloud</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>RingEX</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Hello to Growing Your Business</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Google</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
         <is>
           <t>Easily set up and grow my business</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="R5" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
         <is>
           <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Phrase</t>
         </is>
       </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Search Behavior: The lead actively searched for a solution or visited our site. 
-• Trigger: What keyword or campaign may have triggered the engagement. 
-• Urgency: How to tailor outreach based on urgency or solution comparison. 
-Focus on urgency, buyer readiness, and solution fit. 
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Google_US_Search_Brand_Phrase
-Engagement method: Paid Search: Clicked on search ads - actively searching for communication solutions with high intent
-Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
-Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Brand Search: Found via RingCentral brand keyword search - direct high intent query
-Specific engagement context: SEM - Brand: Searched 'RingCentral' or product names - brand aware, high intent
-Target customer profile campaign identifier: Hello to Growing Your Business: Small business scaling - fast setup, flexible usage, and business growth
-Campaign format: Advertisement: Ad campaign response - varying intent based on ad type
-Lead source context: Google: Google Ads - paid search intent
-Value proposition focus: Easily set up and grow my business: SMB messaging - simplicity and growth focus
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Target customer profile campaign identifier: Hello to Growing Your Business (Small business scaling - fast setup, flexible usage, and business growth)
+Campaign format: Advertisement (Ad campaign response - varying intent based on ad type)
+Lead source context: Google (Google Ads - paid search intent)
+Value proposition focus: Easily set up and grow my business (SMB messaging - simplicity and growth focus)
 Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Brand_Phrase
 Campaign title: Google_US_Search_Brand_Phrase
 Target geographic market for campaign: US
@@ -996,232 +1795,124 @@
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>• Search Behavior: Prospect actively searched for communication solutions, likely a small business decision-maker exploring UCaaS options.
-• Trigger: Engaged via Google Ads, indicating high intent for RingCentral's UCaaS solutions.
-• Urgency: Tailor outreach with a focus on fast setup, cost savings, and scalability to meet growing business needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>7012H000001hVx3QAE</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Google_US_Search_Fax_Exact</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Brand keyword search like 'RingCentral'
+• [Urgency]: Tailor outreach with focus on fast setup and growth potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7012H000001hVx6QAE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Google_US_Search_Phone_Systems_Exact</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Paid Search</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Advertisement</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Fax_Exact</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Phone_Systems_Exact</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Search Engines</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>SEM - Non-Brand</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>MVP/PBX to Cloud</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>RingEX</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Hello to Growing Your Business</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Google</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
         <is>
           <t>Easily set up and grow my business</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="R6" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Fax_Exact</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Search Behavior: The lead actively searched for a solution or visited our site. 
-• Trigger: What keyword or campaign may have triggered the engagement. 
-• Urgency: How to tailor outreach based on urgency or solution comparison. 
-Focus on urgency, buyer readiness, and solution fit. 
-IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
-Campaign Information:
-Campaign: Google_US_Search_Fax_Exact
-Engagement method: Paid Search: Clicked on search ads - actively searching for communication solutions with high intent
-Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
-Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Search Engines: SEM/SEO driven - paid or organic search
-Specific engagement context: SEM - Non-Brand: Searched generic terms like 'business phone system' - comparing solutions
-Target customer profile campaign identifier: Hello to Growing Your Business: Small business scaling - fast setup, flexible usage, and business growth
-Campaign format: Advertisement: Ad campaign response - varying intent based on ad type
-Lead source context: Google: Google Ads - paid search intent
-Value proposition focus: Easily set up and grow my business: SMB messaging - simplicity and growth focus
-Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Fax_Exact
-Campaign title: Google_US_Search_Fax_Exact
-Target geographic market for campaign: US
-Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
-Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Fax_Exact
-Description (max 255 characters):</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>• Search Behavior: Prospect actively searched for communication solutions; likely comparing options like business phone systems.
-• Trigger: Engagement possibly triggered by generic terms related to 'business phone system' in SEM non-brand ads.
-• Urgency: Tailor outreach emphasizing RingEX UCaaS fit for IT decision makers seeking cost-effective cloud migration solutions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>7012H000001hVx6QAE</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Google_US_Search_Phone_Systems_Exact</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Paid Search</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Advertisement</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
         <is>
           <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Phone_Systems_Exact</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Search Engines</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>SEM - Non-Brand</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>MVP/PBX to Cloud</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>RingEX</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Hello to Growing Your Business</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Google</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Easily set up and grow my business</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Phone_Systems_Exact</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Search Behavior: The lead actively searched for a solution or visited our site. 
-• Trigger: What keyword or campaign may have triggered the engagement. 
-• Urgency: How to tailor outreach based on urgency or solution comparison. 
-Focus on urgency, buyer readiness, and solution fit. 
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Google_US_Search_Phone_Systems_Exact
-Engagement method: Paid Search: Clicked on search ads - actively searching for communication solutions with high intent
-Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
-Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Search Engines: SEM/SEO driven - paid or organic search
-Specific engagement context: SEM - Non-Brand: Searched generic terms like 'business phone system' - comparing solutions
-Target customer profile campaign identifier: Hello to Growing Your Business: Small business scaling - fast setup, flexible usage, and business growth
-Campaign format: Advertisement: Ad campaign response - varying intent based on ad type
-Lead source context: Google: Google Ads - paid search intent
-Value proposition focus: Easily set up and grow my business: SMB messaging - simplicity and growth focus
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile campaign identifier: Hello to Growing Your Business (Small business scaling - fast setup, flexible usage, and business growth)
+Campaign format: Advertisement (Ad campaign response - varying intent based on ad type)
+Lead source context: Google (Google Ads - paid search intent)
+Value proposition focus: Easily set up and grow my business (SMB messaging - simplicity and growth focus)
 Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Phone_Systems_Exact
 Campaign title: Google_US_Search_Phone_Systems_Exact
 Target geographic market for campaign: US
@@ -1230,111 +1921,1131 @@
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>• Search Behavior: Prospect actively searched for communication solutions, likely comparing options. 
-• Trigger: Engagement possibly triggered by generic terms like 'business phone system.' 
-• Urgency: Tailor outreach with urgency in mind for potential IT decision makers considering RingEX UCaaS.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' likely sparked engagement
+• [Urgency]: Tailor outreach with cost-saving benefits and quick implementation for SMB growth</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7012H000001hVxAQAU</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Google_US_Search_Toll_Free_Exact</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Toll_Free_Exact</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Hello to Growing Your Business</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Easily set up and grow my business</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Toll_Free_Exact</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_Toll_Free_Exact
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile campaign identifier: Hello to Growing Your Business (Small business scaling - fast setup, flexible usage, and business growth)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Campaign format: Advertisement (Ad campaign response - varying intent based on ad type)
+Lead source context: Google (Google Ads - paid search intent)
+Value proposition focus: Easily set up and grow my business (SMB messaging - simplicity and growth focus)
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Toll_Free_Exact
+Campaign title: Google_US_Search_Toll_Free_Exact
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_Toll_Free_Exact
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' may have sparked engagement
+• [Urgency]: Tailor outreach based on comparison urgency and solution fit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7012H000001hVxFQAU</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Google_US_Search_VoIP_Exact</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_VoIP_Exact</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Hello to Growing Your Business</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Easily set up and grow my business</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_VoIP_Exact</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_VoIP_Exact
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile campaign identifier: Hello to Growing Your Business (Small business scaling - fast setup, flexible usage, and business growth)
+Campaign format: Advertisement (Ad campaign response - varying intent based on ad type)
+Lead source context: Google (Google Ads - paid search intent)
+Value proposition focus: Easily set up and grow my business (SMB messaging - simplicity and growth focus)
+Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_VoIP_Exact
+Campaign title: Google_US_Search_VoIP_Exact
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_VoIP_Exact
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' may have triggered engagement
+• [Urgency]: Tailor outreach based on solution comparison or immediate need for UCaaS RingEX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7012H000001hXAcQAM</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SMB_MVP_AFF_NETWORK</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Captures leads who came from the sponsored post on CPA Network.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Direct Affiliates</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Affiliates - CPA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Partnerize (US)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Easily set up and grow my business</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Captures leads who came from the sponsored post on CPA Network.</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: SMB_MVP_AFF_NETWORK
+Engagement method: Affiliates (Referred through affiliate partner - has some context about RingCentral)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Direct Affiliates (Referred by direct affiliate - warm intro with initial context)
+Specific engagement context: Affiliates - CPA (Affiliate referral - cost-per-action model, deeper engagement)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Lead source context: Partnerize (US)
+Value proposition focus: Easily set up and grow my business (SMB messaging - simplicity and growth focus)
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Campaign description: Captures leads who came from the sponsored post on CPA Network.
+Campaign title: SMB_MVP_AFF_NETWORK
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Captures leads who came from the sponsored post on CPA Network.
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Partnerize (US): Affiliates referred through affiliate partners provide credibility and context about RingCentral. 
+• [Fit/ Alignment]: RingEX SMB Acquisition: Indicates a fit for SMBs seeking UCaaS solutions with a focus on cost savings and simplicity.
+• [Leverage]: RingEX: Leverage affiliate partner credibility to highlight cost savings and simplicity in outreach to SMBs for RingEX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>7012H000001hYSCQA2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Google_US_Search_VoIP_Broad</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_VoIP_Broad</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Hello to Growing Your Business</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Easily set up and grow my business</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_VoIP_Broad</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_VoIP_Broad
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile campaign identifier: Hello to Growing Your Business (Small business scaling - fast setup, flexible usage, and business growth)
+Campaign format: Advertisement (Ad campaign response - varying intent based on ad type)
+Lead source context: Google (Google Ads - paid search intent)
+Value proposition focus: Easily set up and grow my business (SMB messaging - simplicity and growth focus)
+Campaign description: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_VoIP_Broad
+Campaign title: Google_US_Search_VoIP_Broad
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search SEM Soiurce - Everygreen Campaign Google_US_Search_VoIP_Broad
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' might have sparked interest
+• [Urgency]: Tailor outreach based on comparison needs and readiness to switch to RingEX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7012H000001hYUVQA2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Google_US_Search_MVP_DSA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Source - Everygreen Campaign Google_US_Search_MVP_DSA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Hello to Growing Your Business</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Easily set up and grow my business</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Source - Everygreen Campaign Google_US_Search_MVP_DSA</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_MVP_DSA
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile campaign identifier: Hello to Growing Your Business (Small business scaling - fast setup, flexible usage, and business growth)
+Campaign format: Advertisement (Ad campaign response - varying intent based on ad type)
+Lead source context: Google (Google Ads - paid search intent)
+Value proposition focus: Easily set up and grow my business (SMB messaging - simplicity and growth focus)
+Campaign description: Paid Search SEM Source - Everygreen Campaign Google_US_Search_MVP_DSA
+Campaign title: Google_US_Search_MVP_DSA
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search SEM Source - Everygreen Campaign Google_US_Search_MVP_DSA
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' may have sparked engagement
+• [Urgency]: Tailor outreach based on comparison urgency and readiness to switch to RingEX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7012H000001ha2XQAQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bing_US_Search_VoIP</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Source - Everygreen Campaign Bing_US_Search_VoIP</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Hello to Growing Your Business</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Easily set up and grow my business</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Source - Everygreen Campaign Bing_US_Search_VoIP</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Bing_US_Search_VoIP
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile campaign identifier: Hello to Growing Your Business (Small business scaling - fast setup, flexible usage, and business growth)
+Campaign format: Advertisement (Ad campaign response - varying intent based on ad type)
+Lead source context: Bing
+Value proposition focus: Easily set up and grow my business (SMB messaging - simplicity and growth focus)
+Campaign description: Paid Search SEM Source - Everygreen Campaign Bing_US_Search_VoIP
+Campaign title: Bing_US_Search_VoIP
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search SEM Source - Everygreen Campaign Bing_US_Search_VoIP
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' likely triggered engagement
+• [Urgency]: Tailor outreach to highlight fast setup, flexibility, and cost savings for SMB growth</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7012H000001haYRQAY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Google_US_Search_MicrosoftTeams_ALL</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Source - Everygreen Campaign Google_US_Search_Partnerships_ALL</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>MVP/PBX to Cloud</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Optimizing the Workforce</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Easily set up and grow my business</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Paid Search SEM Source - Everygreen Campaign Google_US_Search_Partnerships_ALL</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_MicrosoftTeams_ALL
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile campaign identifier: Optimizing the Workforce (Productivity-focused - better internal communication and coordination)
+Campaign format: Advertisement (Ad campaign response - varying intent based on ad type)
+Lead source context: Google (Google Ads - paid search intent)
+Value proposition focus: Easily set up and grow my business (SMB messaging - simplicity and growth focus)
+Campaign description: Paid Search SEM Source - Everygreen Campaign Google_US_Search_Partnerships_ALL
+Campaign title: Google_US_Search_MicrosoftTeams_ALL
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search SEM Source - Everygreen Campaign Google_US_Search_Partnerships_ALL
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' may have triggered the engagement
+• [Urgency]: Tailor outreach based on comparison urgency or solution fit</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>7012H000001heCpQAI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Google_UK_Search_Branded_SMB_Phone_2022</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Members of this campaign responded to content promotion on Google</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Members of this campaign responded to content promotion on Google</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_UK_Search_Branded_SMB_Phone_2022
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Campaign format: Other
+Lead source context: Google (Google Ads - paid search intent)
+Sales territory assignment: UK
+Company size segment: Small Business (1-499 employees (includes SOHO, SMB, Mid Market))
+Campaign description: Members of this campaign responded to content promotion on Google
+Campaign title: Google_UK_Search_Branded_SMB_Phone_2022
+Target geographic market for campaign: UK
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Members of this campaign responded to content promotion on Google
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Searched 'RingCentral' or product names - brand aware, high intent
+• [Urgency]: Tailor outreach to highlight solution fit, urgency, and competitive advantage</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>7012H000001l35sQAA</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Affiliates_TheTop10sites</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Affiliates</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - TheTop10Sites.com (https://www.thetop10sites.com/business-voip/) and submitted their info through the web form or called in.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Direct Affiliates</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Affiliates - CPL</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>MVP/PBX to Cloud</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>RingEX</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Greenfield</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>RingEX SMB Acquisition</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Better Impression (US)</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="R8" t="b">
+      <c r="R22" t="b">
         <v>0</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
         <is>
           <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - TheTop10Sites.com (https://www.thetop10sites.com/business-voip/) and submitted their info through the web form or called in.</t>
         </is>
       </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Referral Source: This lead came through a trusted third party referral or partner. 
-• Fit/Alignment: What the partnership suggests about product fit or integration potential. 
-• Leverage: How to use that credibility to guide outreach. 
-Focus on leveraging the referral trust and highlighting integration or ecosystem relevance. 
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Affiliates_TheTop10sites
-Engagement method: Affiliates: Referred through affiliate partner - has some context about RingCentral
-Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
-Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Direct Affiliates: Referred by direct affiliate - warm intro with initial context
-Specific engagement context: Affiliates - CPL: Affiliate referral - cost-per-lead, mid-intent form fill
-Target customer profile program classification: Greenfield: Ongoing evergreen campaign - continous lead flow
-Target customer profile and strategy: RingEX SMB Acquisition: Targeting small business (1-499 employees) - faster sales cycle, price sensitive
+Engagement method: Affiliates (Referred through affiliate partner - has some context about RingCentral)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Direct Affiliates (Referred by direct affiliate - warm intro with initial context)
+Specific engagement context: Affiliates - CPL (Affiliate referral - cost-per-lead, mid-intent form fill)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
 Lead source context: Better Impression (US)
-Company size segment: SMB: 20-99 employees - growing company, scalability important
+Company size segment: SMB (20-99 employees - growing company, scalability important)
 Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
 Campaign description: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - TheTop10Sites.com (https://www.thetop10sites.com/business-voip/) and submitted their info through the web form or called in.
 Campaign title: Affiliates_TheTop10sites
@@ -1344,111 +3055,120 @@
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>• Referral Source: Referred via trusted affiliate partner TheTop10Sites.com
-• Fit/Alignment: Indicates interest in RingEX UCaaS for SMB, IT decision maker
-• Leverage: Highlight integration potential, mention referral for credibility</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Referred from TheTop10Sites.com - credible comparison/review site for business VoIP solutions  
+• [Fit/ Alignment]: Indicates interest in RingEX for UCaaS; aligns with migration to cloud, cost savings pitch  
+• [Leverage]: Use TheTop10Sites.com credibility to emphasize RingEX fit; highlight cost savings and cloud migration in outreach</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>7012H000001l3BBQAY</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Affiliates_BusinessBPS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Affiliates</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Prospect visited RingCentral Office Landing Page from a Content/Review Website - Business.com (https://www.business.com/categories/business-phone-systems/) and submitted their info through the web form or called in.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Direct Affiliates</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Affiliates - CPC</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>MVP/PBX to Cloud</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>RingEX</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Greenfield</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>RingEX SMB Acquisition</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>Purch (Business News Daily - VOIP)</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="R9" t="b">
+      <c r="R23" t="b">
         <v>0</v>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
         <is>
           <t>Prospect visited RingCentral Office Landing Page from a Content/Review Website - Business.com (https://www.business.com/categories/business-phone-systems/) and submitted their info through the web form or called in.</t>
         </is>
       </c>
-      <c r="U9" t="n">
+      <c r="U23" t="n">
         <v>1</v>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Referral Source: This lead came through a trusted third party referral or partner. 
-• Fit/Alignment: What the partnership suggests about product fit or integration potential. 
-• Leverage: How to use that credibility to guide outreach. 
-Focus on leveraging the referral trust and highlighting integration or ecosystem relevance. 
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Affiliates_BusinessBPS
-Engagement method: Affiliates: Referred through affiliate partner - has some context about RingCentral
-Cross channel marketing integration indicator: MVP/PBX to Cloud: Migration from on-premise focus - cost savings pitch
-Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Direct Affiliates: Referred by direct affiliate - warm intro with initial context
-Specific engagement context: Affiliates - CPC: Clicked cost-per-click affiliate link - low-friction awareness
-Target customer profile program classification: Greenfield: Ongoing evergreen campaign - continous lead flow
-Target customer profile and strategy: RingEX SMB Acquisition: Targeting small business (1-499 employees) - faster sales cycle, price sensitive
+Engagement method: Affiliates (Referred through affiliate partner - has some context about RingCentral)
+Cross channel marketing integration indicator: MVP/PBX to Cloud (Migration from on-premise focus - cost savings pitch)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Direct Affiliates (Referred by direct affiliate - warm intro with initial context)
+Specific engagement context: Affiliates - CPC (Clicked cost-per-click affiliate link - low-friction awareness)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
 Lead source context: Purch (Business News Daily - VOIP)
-Company size segment: SMB: 20-99 employees - growing company, scalability important
+Company size segment: SMB (20-99 employees - growing company, scalability important)
 Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
 Campaign description: Prospect visited RingCentral Office Landing Page from a Content/Review Website - Business.com (https://www.business.com/categories/business-phone-systems/) and submitted their info through the web form or called in.
 Campaign title: Affiliates_BusinessBPS
@@ -1458,94 +3178,942 @@
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>- Referral Source: Trusted third party referral from Business.com - indicates interest in RingEX UCaaS
-- Fit/Alignment: Partnership suggests strong product fit or integration potential for RingCentral
-- Leverage: Use referral credibility to guide outreach with focus on integration benefits</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Referred by affiliate partner Business.com - strong credibility in business tech reviews
+• [Fit/ Alignment]: Indicates strong fit with RingEX for SMBs - emphasis on UCaaS features and cost savings
+• [Leverage]: Highlight Business.com partnership to emphasize RingEX benefits for SMBs, focusing on UCaaS features and cost savings</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7012H000001xYDRQA2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Google_US_Search_Brand_Other</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Everygreen Paid Search Campaign Google_US_Search_Brand_Other</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Brand Search</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Everygreen Paid Search Campaign Google_US_Search_Brand_Other</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_Brand_Other
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Lead source context: Google (Google Ads - paid search intent)
+Campaign description: Everygreen Paid Search Campaign Google_US_Search_Brand_Other
+Campaign title: Google_US_Search_Brand_Other
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Everygreen Paid Search Campaign Google_US_Search_Brand_Other
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Brand keyword searches like 'RingCentral' likely triggered engagement
+• [Urgency]: Tailor outreach based on high intent for UCaaS solutions, emphasizing solution fit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7012H000001xYDSQA2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Google_US_Search_Brand_Product</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Everygreen Paid Search Campaign Google_US_Search_Brand_Product</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Brand Search</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Everygreen Paid Search Campaign Google_US_Search_Brand_Product</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_Brand_Product
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Lead source context: Google (Google Ads - paid search intent)
+Campaign description: Everygreen Paid Search Campaign Google_US_Search_Brand_Product
+Campaign title: Google_US_Search_Brand_Product
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Everygreen Paid Search Campaign Google_US_Search_Brand_Product
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Brand keyword search or product-specific terms drove the engagement
+• [Urgency]: Tailor outreach to highlight RingEX benefits for urgent communication needs</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7012H000001xYDTQA2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Google_US_Search_Brand_Support</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Everygreen Paid Search Campaign Google_US_Search_Brand_Support</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Brand Search</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Everygreen Paid Search Campaign Google_US_Search_Brand_Support</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_Brand_Support
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Lead source context: Google (Google Ads - paid search intent)
+Campaign description: Everygreen Paid Search Campaign Google_US_Search_Brand_Support
+Campaign title: Google_US_Search_Brand_Support
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Everygreen Paid Search Campaign Google_US_Search_Brand_Support
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Brand search for 'RingCentral' or related product names
+• [Urgency]: Tailor outreach based on high intent for UCaaS RingEX solution</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>7012H000001xYDUQA2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Google_US_Search_Brand_PlansPrice</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Everygreen Paid Search Campaign Google_US_Search_Brand_PlansPrice</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Brand Search</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Everygreen Paid Search Campaign Google_US_Search_Brand_PlansPrice</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_Brand_PlansPrice
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Lead source context: Google (Google Ads - paid search intent)
+Campaign description: Everygreen Paid Search Campaign Google_US_Search_Brand_PlansPrice
+Campaign title: Google_US_Search_Brand_PlansPrice
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Everygreen Paid Search Campaign Google_US_Search_Brand_PlansPrice
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: RingCentral or related product names could have triggered engagement
+• [Urgency]: Tailor outreach with urgency, emphasizing solution fit for their UCaaS needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7012H0000021eRYQAY</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Forbes_CPC_Campaign</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Prospect came from Forbes Advisor's review page and is interested to learn more/purchase RingCentral's voip services/products.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Direct Affiliates</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Affiliates - CPC</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Forbes</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Prospect came from Forbes Advisor's review page and is interested to learn more/purchase RingCentral's voip services/products.</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Forbes_CPC_Campaign
+Engagement method: Affiliates (Referred through affiliate partner - has some context about RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Direct Affiliates (Referred by direct affiliate - warm intro with initial context)
+Specific engagement context: Affiliates - CPC (Clicked cost-per-click affiliate link - low-friction awareness)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Lead source context: Forbes
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
+Campaign description: Prospect came from Forbes Advisor's review page and is interested to learn more/purchase RingCentral's voip services/products.
+Campaign title: Forbes_CPC_Campaign
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Prospect came from Forbes Advisor's review page and is interested to learn more/purchase RingCentral's voip services/products.
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Referred through Forbes Advisor, providing credibility on RingEX fit for SMBs
+• [Fit/ Alignment]: Indicates strong alignment with SMB target market and high intent for UCaaS
+• [Leverage]: Highlight RingEX benefits for SMBs in follow-up, leveraging Forbes credibility for trust</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>70134000000VVutAAG</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sales Generated_Lead Company Website</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sales Generated</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sales Generated</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Sales Generated</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>28</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Source]: What the sales sourcing method is and explain why this contact was selected for outreach
+• [Data Origin]: The prospect profile and qualification criteria that made them a target
+• [Approach]: A specific cold outreach tactics, timing, and personalization strategy
+Focus on the sales context and potential fit not prospect behavior (since they haven't engaged).
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Sales Generated_Lead Company Website
+Engagement method: Sales Generated (Sales rep created contact from data provider - no direct prospect engagement yet)
+Secondary channel: Sales Generated (Entered by sales team from internal source - low initial engagement)
+Lead source context: Sales Generated
+Campaign title: Sales Generated_Lead Company Website
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>• [Source]: Sales rep created contact from data provider - selected for outreach based on fit with US market target
+• [Data Origin]: Target profile and qualification criteria align with US market - no direct prospect engagement yet
+• [Approach]: Recommend personalized cold outreach tactics highlighting fit with US market focus</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>701340000018RyoAAE</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Google_CA_Search_Brand_Exact</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Brand Search</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_CA_Search_Brand_Exact
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Lead source context: Google (Google Ads - paid search intent)
+Campaign title: Google_CA_Search_Brand_Exact
+Target geographic market for campaign: CA
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Brand keyword search or specific product names
+• [Urgency]: Tailor outreach based on high intent and brand awareness</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>701340000018Xw8AAE</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Generic_Campaign</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Affiliates - CPC</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Generic Campaign</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>We need to track other affiliate traffic that doesn't particularly fall into other Affiliate campaigns we have. This will be used as a generic Affiliate BMID.</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Generic_Campaign
+Engagement method: Affiliates (Referred through affiliate partner - has some context about RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Other (Uncategorized sub-channel)
+Specific engagement context: Affiliates - CPC (Clicked cost-per-click affiliate link - low-friction awareness)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Lead source context: Generic Campaign
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Campaign title: Generic_Campaign
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: We need to track other affiliate traffic that doesn't particularly fall into other Affiliate campaigns we have. This will be used as a generic Affiliate BMID.
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Partner is an affiliate with context on RingCentral, providing credibility in UCaaS solutions
+• [Fit/ Alignment]: Indicates interest in RingEX for SMBs, highlighting alignment with small business needs
+• [Leverage]: Use affiliate credibility to emphasize RingEX benefits for SMBs in outreach for faster, price-sensitive sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>70134000001CjkkAAC</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Bing_US_Search_Brand_Exact</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Paid Search</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Paid Search</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Brand Search</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>SEM - Brand</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t>RingEX</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Bing</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="R10" t="b">
+      <c r="R32" t="b">
         <v>0</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
         <is>
           <t>Paid Search</t>
         </is>
       </c>
-      <c r="U10" t="n">
+      <c r="U32" t="n">
         <v>1</v>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Search Behavior: The lead actively searched for a solution or visited our site. 
-• Trigger: What keyword or campaign may have triggered the engagement. 
-• Urgency: How to tailor outreach based on urgency or solution comparison. 
-Focus on urgency, buyer readiness, and solution fit. 
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Bing_US_Search_Brand_Exact
-Engagement method: Paid Search: Clicked on search ads - actively searching for communication solutions with high intent
-Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Brand Search: Found via RingCentral brand keyword search - direct high intent query
-Specific engagement context: SEM - Brand: Searched 'RingCentral' or product names - brand aware, high intent
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
 Lead source context: Bing
 Campaign description: Paid Search
 Campaign title: Bing_US_Search_Brand_Exact
@@ -1555,81 +4123,494 @@
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>• Search Behavior: Lead actively searched for communication solutions, likely a tech-savvy IT decision maker interested in RingEX UCaaS.  
-• Trigger: Engaged via Bing_US_Search_Brand_Exact campaign, showing high intent through brand keyword search.  
-• Urgency: Tailor outreach addressing urgent UCaaS needs, emphasizing RingEX fit for seamless communication solutions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Brand-specific keyword or product name search triggered engagement
+• [Urgency]: Tailor outreach to address immediate UCaaS needs and IT decision-making role for RingEX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>70134000001CjklAAC</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bing_US_Search_Brand_Exact</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Brand Search</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Bing_US_Search_Brand_Exact
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Lead source context: Bing
+Campaign description: Paid Search
+Campaign title: Bing_US_Search_Brand_Exact
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Brand-specific keywords or product names likely triggered the engagement
+• [Urgency]: Tailor outreach with a focus on urgency and solution fit for RingEX UCaaS system</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>70134000001CjkoAAC</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bing_US_Search_Brand_Exact</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Brand Search</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Bing_US_Search_Brand_Exact
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Lead source context: Bing
+Campaign description: Paid Search
+Campaign title: Bing_US_Search_Brand_Exact
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Brand keyword search or specific product names
+• [Urgency]: Tailor outreach based on high intent and brand awareness</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>70134000001XvWdAAK</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RC_US_Other_Referrer</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Other Referrer</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>RC US Other Referrer</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Digital Marketing team is currently working on cleaning up all referring domains with missing BMIDs that are being attributed to the Walk-On channel. This said, we need to create new campaigns for proper attributions of the referring domains.</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Source]: What the sales sourcing method is and explain why this contact was selected for outreach
+• [Data Origin]: The prospect profile and qualification criteria that made them a target
+• [Approach]: A specific cold outreach tactics, timing, and personalization strategy
+Focus on the sales context and potential fit not prospect behavior (since they haven't engaged).
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: RC_US_Other_Referrer
+Engagement method: Other (Engagment channel not categorized - review needed to determine buyer intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Other Referrer (Referral from uncategorized external source)
+Lead source context: RC US Other Referrer
+Campaign title: RC_US_Other_Referrer
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Digital Marketing team is currently working on cleaning up all referring domains with missing BMIDs that are being attributed to the Walk-On channel. This said, we need to create new campaigns for proper attributions of the referring domains.
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>• [Source]: This contact was selected due to a referral from an uncategorized external source for RingEX UCaaS interest.
+• [Data Origin]: Target profile criteria align with IT decision makers in the US interested in business phone systems.
+• [Approach]: Utilize personalized cold outreach emphasizing the benefits of UCaaS for unified communications needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>70134000001XvWiAAK</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RC_US_Internal_Domains</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Internal Domains</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>RC US Internal Domains</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Digital Marketing team is currently working on cleaning up all referring domains with missing BMIDs that are being attributed to the Walk-On channel. This said, we need to create new campaigns for proper attributions of the referring domains.</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Source]: What the sales sourcing method is and explain why this contact was selected for outreach
+• [Data Origin]: The prospect profile and qualification criteria that made them a target
+• [Approach]: A specific cold outreach tactics, timing, and personalization strategy
+Focus on the sales context and potential fit not prospect behavior (since they haven't engaged).
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: RC_US_Internal_Domains
+Engagement method: Other (Engagment channel not categorized - review needed to determine buyer intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Internal Domains (Internal domain traffic - likely employee or test traffic)
+Lead source context: RC US Internal Domains
+Campaign title: RC_US_Internal_Domains
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Digital Marketing team is currently working on cleaning up all referring domains with missing BMIDs that are being attributed to the Walk-On channel. This said, we need to create new campaigns for proper attributions of the referring domains.
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>• [Source]: Prospects were selected based on internal domain traffic to identify potential IT decision makers interested in RingEX UCaaS.
+• [Data Origin]: Targeting US-based leads likely accessing internal domains, indicating potential employee or test traffic fit for RingEX.
+• [Approach]: Tailor outreach to showcase RingEX benefits for UCaaS needs, aiming for timely and personalized messaging to engage IT decision makers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>70134000001XyCZAA0</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>RCO/ACO_Price_Parity</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>VAR MDF</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>Events</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
         <is>
           <t>RingEX</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
         <is>
           <t>VAR Marketing</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="R11" t="b">
+      <c r="R37" t="b">
         <v>0</v>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Referral Source: This lead came through a trusted third party referral or partner. 
-• Fit/Alignment: What the partnership suggests about product fit or integration potential. 
-• Leverage: How to use that credibility to guide outreach. 
-Focus on leveraging the referral trust and highlighting integration or ecosystem relevance. 
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: RCO/ACO_Price_Parity
-Engagement method: VAR MDF: Campaign funded through reseller marketing - likely co-branded outreach via trusted tech advisor
-Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Events: Event marketing - webinars, conferences, tradeshows
+Engagement method: VAR MDF (Campaign funded through reseller marketing - likely co-branded outreach via trusted tech advisor)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Events (Event marketing - webinars, conferences, tradeshows)
 Lead source context: VAR Marketing
 Campaign title: RCO/ACO_Price_Parity
 Target geographic market for campaign: US
@@ -1637,336 +4618,3530 @@
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>• Referral Source: Trusted tech advisor referred this lead, suggesting strong credibility and interest in RingEX UCaaS. 
-• Fit/Alignment: Partnership indicates potential for seamless integration, highlighting product fit for unified communications. 
-• Leverage: Emphasize the referral trust to position RingEX as a natural choice for their tech ecosystem.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: VAR MDF: Campaign funded through a reseller, signaling endorsement by a trusted tech advisor.
+• [Fit/ Alignment]: Events: Highlights interest in RingEX for UCaaS, indicating alignment with IT decision makers for unified communications.
+• [Leverage]: Use VAR credibility to guide outreach, emphasizing RingEX's fit for UCaaS and the importance of price parity in the US market.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>70134000001XztfAAC</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TrafficPoint_Campaign</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - Trafficpoint.com (http://top5voipproviders.com/reviews/ringcentral/) and submitted their info through the web form or called in.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Direct Affiliates</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Affiliates - CPL</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>TrafficPoint (US)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - Trafficpoint.com (http://top5voipproviders.com/reviews/ringcentral/) and submitted their info through the web form or called in.</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: TrafficPoint_Campaign
+Engagement method: Affiliates (Referred through affiliate partner - has some context about RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Direct Affiliates (Referred by direct affiliate - warm intro with initial context)
+Specific engagement context: Affiliates - CPL (Affiliate referral - cost-per-lead, mid-intent form fill)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Lead source context: TrafficPoint (US)
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
+Campaign description: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - Trafficpoint.com (http://top5voipproviders.com/reviews/ringcentral/) and submitted their info through the web form or called in.
+Campaign title: TrafficPoint_Campaign
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website - Trafficpoint.com (http://top5voipproviders.com/reviews/ringcentral/) and submitted their info through the web form or called in.
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Referred via Trafficpoint.com, a Comparison/Review Website, signaling prospect's intent to evaluate RingEX. 
+• [Fit/ Alignment]: Indicates strong alignment with RingEX SMB Acquisition strategy for small businesses. 
+• [Leverage]: Use affiliate partner credibility to emphasize product fit and prompt quick follow-up on demo or pricing inquiries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>70180000000F3HqAAK</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>RC Main Sales Line 1_Inbound</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Walk-On</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Participation]: The prospect attended a live event or self submitted interest
+• [Signal]: What this action suggests about their buying stage and solution priorities based on event engagement
+• [Engagement Style]: How to follow up in a relationship driven or consultative way
+Focus on event context and tailoring outreach around shared experience or learning goals.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: RC Main Sales Line 1_Inbound
+Engagement method: Walk-On (Self-submitted or inbound lead without campaign - high initiative, potentially urgent need)
+Campaign title: RC Main Sales Line 1_Inbound
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>• [Participation]: The prospect attended a live event or self submitted interest
+• [Signal]: Indicates high initiative and potentially urgent need, reflecting mid to late-stage buyer interest
+• [Engagement Style]: Follow up with a consultative approach, leveraging shared event experience to deepen the relationship.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>70180000000OvLfAAK</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RC Main Service Line 1_Inbound</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Walk-On</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="n">
+        <v>6</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Participation]: The prospect attended a live event or self submitted interest
+• [Signal]: What this action suggests about their buying stage and solution priorities based on event engagement
+• [Engagement Style]: How to follow up in a relationship driven or consultative way
+Focus on event context and tailoring outreach around shared experience or learning goals.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: RC Main Service Line 1_Inbound
+Engagement method: Walk-On (Self-submitted or inbound lead without campaign - high initiative, potentially urgent need)
+Campaign title: RC Main Service Line 1_Inbound
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>• [Participation]: Prospect self-submitted interest or attended a live event for RC Main Service Line 1 in the US
+• [Signal]: Indicates high initiative and potentially urgent need in their buying stage and solution priorities
+• [Engagement Style]: Follow up in a relationship-driven or consultative manner, focusing on shared event experience or learning goals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>70180000000OwY0AAK</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MSN_US_Search_Brand_Exact</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Brand Search</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>SEM - Brand</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: MSN_US_Search_Brand_Exact
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Brand Search (Found via RingCentral brand keyword search - direct high intent query)
+Specific engagement context: SEM - Brand (Searched 'RingCentral' or product names - brand aware, high intent)
+Lead source context: Bing
+Campaign title: MSN_US_Search_Brand_Exact
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Brand keyword search or specific product names likely triggered engagement
+• [Urgency]: Tailor outreach to address immediate need for RingEX UCaaS/business phone system</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>70180000000OwaeAAC</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>SEO_GoogleRC</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Organic Search</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>Search Engines</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
         <is>
           <t>RingEX</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="R12" t="b">
+      <c r="R42" t="b">
         <v>0</v>
       </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Search Behavior: The lead actively searched for a solution or visited our site. 
-• Trigger: What keyword or campaign may have triggered the engagement. 
-• Urgency: How to tailor outreach based on urgency or solution comparison. 
-Focus on urgency, buyer readiness, and solution fit. 
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>49</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: SEO_GoogleRC
-Engagement method: Organic Search: Found us through organic search - self-directed research, comparing options
-Product interest: RingEX: UCaaS/business phone system buyer - likely IT decision maker for unified communications
-Secondary channel: Search Engines: SEM/SEO driven - paid or organic search
+Engagement method: Organic Search (Found us through organic search - self-directed research, comparing options)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
 Campaign title: SEO_GoogleRC
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>• Search Behavior: Lead actively searched for a UCaaS/business phone system solution or visited our site.
-• Trigger: Potential keyword triggers include "UCaaS providers" or "business phone systems comparison."
-• Urgency: Tailor outreach based on urgency for IT decision makers evaluating unified communications solutions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Relevant keywords or campaign likely prompted the engagement
+• [Urgency]: Tailor outreach to address immediate needs and compare our RingEX solution with competitors</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>70180000000Owb2AAC</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SEO_YahooRC</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Organic Search</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: SEO_YahooRC
+Engagement method: Organic Search (Found us through organic search - self-directed research, comparing options)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Campaign title: SEO_YahooRC
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Relevant keywords or specific campaign likely prompted engagement
+• [Urgency]: Tailor outreach based on the urgency or stage of solution comparison</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>70180000000PGiAAAW</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sales_RCOffice_WebsiteDefault_CAN</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Walk-On</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Participation]: The prospect attended a live event or self submitted interest
+• [Signal]: What this action suggests about their buying stage and solution priorities based on event engagement
+• [Engagement Style]: How to follow up in a relationship driven or consultative way
+Focus on event context and tailoring outreach around shared experience or learning goals.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Sales_RCOffice_WebsiteDefault_CAN
+Engagement method: Walk-On (Self-submitted or inbound lead without campaign - high initiative, potentially urgent need)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Campaign title: Sales_RCOffice_WebsiteDefault_CAN
+Target geographic market for campaign: CA
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>• [Participation]: Prospect self-submitted interest in RingEX at the Canadian Sales_RCOffice event
+• [Signal]: Indicates high initiative, urgent need for UCaaS phone system, likely in mid-late buying stage
+• [Engagement Style]: Follow up with a consultative approach, referencing shared event experiences for rapport</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>70180000000PGiUAAW</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>RC_NonBrandedPages_CAN</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Walk-On</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Participation]: The prospect attended a live event or self submitted interest
+• [Signal]: What this action suggests about their buying stage and solution priorities based on event engagement
+• [Engagement Style]: How to follow up in a relationship driven or consultative way
+Focus on event context and tailoring outreach around shared experience or learning goals.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: RC_NonBrandedPages_CAN
+Engagement method: Walk-On (Self-submitted or inbound lead without campaign - high initiative, potentially urgent need)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Campaign title: RC_NonBrandedPages_CAN
+Target geographic market for campaign: CA
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>• [Participation]: The prospect attended a live event or self submitted interest: Indicates active engagement, high initiative, and potential urgent need for RingEX UCaaS. 
+• [Signal]: Shows strong intent in the buying stage and solution priorities based on event interaction or interest submission.
+• [Engagement Style]: Follow up in a relationship-driven or consultative manner, focusing on shared event experiences or learning goals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>70180000000PSzNAAW</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Bing - Organic Search</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Organic Search</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SEO - Bing.com</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>SEO - Bing.com</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Bing - Organic Search
+Engagement method: Organic Search (Found us through organic search - self-directed research, comparing options)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Campaign description: SEO - Bing.com
+Campaign title: Bing - Organic Search
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: SEO - Bing.com
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Relevant Bing.com keyword or campaign sparked engagement
+• [Urgency]: Tailor outreach based on urgency or solution comparison, highlighting RingEX's fit</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>70180000000a3VMAAY</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SEO_GoogleRC</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Organic Search</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R47" t="b">
+        <v>0</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: SEO_GoogleRC
+Engagement method: Organic Search (Found us through organic search - self-directed research, comparing options)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Campaign title: SEO_GoogleRC
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Relevant keywords or SEO efforts likely prompted the engagement
+• [Urgency]: Tailor outreach based on their self-directed research and solution comparison for RingEX.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>70180000000a3WGAAY</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SEO_OthersRC</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Organic Search</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: SEO_OthersRC
+Engagement method: Organic Search (Found us through organic search - self-directed research, comparing options)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Campaign title: SEO_OthersRC
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Relevant keywords or campaign likely triggered the engagement
+• [Urgency]: Tailor outreach based on immediate need for RingEX UCaaS solution</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>70180000000a3WpAAI</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Bing - Organic Search</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Organic Search</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SEO - Bing.com</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R49" t="b">
+        <v>0</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>SEO - Bing.com</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Bing - Organic Search
+Engagement method: Organic Search (Found us through organic search - self-directed research, comparing options)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Campaign description: SEO - Bing.com
+Campaign title: Bing - Organic Search
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: SEO - Bing.com
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site 
+• [Trigger]: Bing organic search likely triggered engagement 
+• [Urgency]: Tailor outreach based on solution comparison urgency</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>70180000000a7uUAAQ</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GetVoip</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Affiliates</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website (www.getvoip.com/business) and submitted their info through the web form or called in.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Direct Affiliates</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Affiliates - CPL</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>GetVOIP (US)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Prospect visited RingCentral Office Landing Page from a Comparison/Review Website (www.getvoip.com/business) and submitted their info through the web form or called in.</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: GetVoip
+Engagement method: Affiliates (Referred through affiliate partner - has some context about RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Direct Affiliates (Referred by direct affiliate - warm intro with initial context)
+Specific engagement context: Affiliates - CPL (Affiliate referral - cost-per-lead, mid-intent form fill)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Lead source context: GetVOIP (US)
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
+Campaign description: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website (www.getvoip.com/business) and submitted their info through the web form or called in.
+Campaign title: GetVoip
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Prospect visited RingCentral Office Landing Page from a Comparison/Review Website (www.getvoip.com/business) and submitted their info through the web form or called in.
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Referred from getvoip.com, enhancing credibility with RingCentral context
+• [Fit/ Alignment]: Indicates strong fit for RingEX UCaaS in SMB segment, potential for easy integration
+• [Leverage]: Use affiliate partner credibility to emphasize RingEX benefits for SMBs and propose tailored solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>701800000018vkWAAQ</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Walk-On_UK</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Walk-On</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Participation]: The prospect attended a live event or self submitted interest
+• [Signal]: What this action suggests about their buying stage and solution priorities based on event engagement
+• [Engagement Style]: How to follow up in a relationship driven or consultative way
+Focus on event context and tailoring outreach around shared experience or learning goals.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Walk-On_UK
+Engagement method: Walk-On (Self-submitted or inbound lead without campaign - high initiative, potentially urgent need)
+Secondary channel: Other (Uncategorized sub-channel)
+Campaign title: Walk-On_UK
+Target geographic market for campaign: UK
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>• [Participation]: Prospect attended a live event or self-submitted interest
+• [Signal]: Indicates high initiative and potentially urgent need, aligning with solution priorities
+• [Engagement Style]: Follow up in a relationship-driven or consultative manner, leveraging shared experience or learning goals</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" t="inlineStr">
         <is>
           <t>701800000019F0iAAE</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Sales Generated</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Walk-On</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
         <is>
           <t>Sales Generated</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="R13" t="b">
+      <c r="R52" t="b">
         <v>0</v>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
-        <v>21</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Participation: The prospect attended a live event or self submitted interest. 
-• Signal: What this action suggests about their current interest or goals. 
-• Engagement Style: How to follow up in a relationship driven or consultative way. 
-Focus on event context and tailoring outreach around shared experience or learning goals. 
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="n">
+        <v>175</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Participation]: The prospect attended a live event or self submitted interest
+• [Signal]: What this action suggests about their buying stage and solution priorities based on event engagement
+• [Engagement Style]: How to follow up in a relationship driven or consultative way
+Focus on event context and tailoring outreach around shared experience or learning goals.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: Sales Generated
-Engagement method: Walk-On: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
-Secondary channel: Sales Generated: Entered by sales team from internal source - low initial engagement
+Engagement method: Walk-On (Self-submitted or inbound lead without campaign - high initiative, potentially urgent need)
+Secondary channel: Sales Generated (Entered by sales team from internal source - low initial engagement)
 Campaign title: Sales Generated
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>• Participation: Prospects showed high initiative by self-submitting interest or attending an event related to our product. 
-• Signal: Indicates urgent need or strong interest in addressing specific challenges related to our product. 
-• Engagement Style: Follow up with a consultative approach, focusing on shared experiences or learning goals from the event.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>701Hr000000t6JrIAI</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>HealthcareLPformfills</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>• [Participation]: The prospect attended a live event or self-submitted interest
+• [Signal]: Indicates active interest, potentially in a later buying stage, focusing on specific solution needs
+• [Engagement Style]: Follow up with a personalized approach, emphasizing shared event insights or solutions discussed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>701800000019F12AAE</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Broken Attribution</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>WIP</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Healthcare integrated campaign</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>website</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="R14" t="b">
+      <c r="R53" t="b">
         <v>0</v>
       </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Healthcare integrated campaign</t>
-        </is>
-      </c>
-      <c r="U14" t="n">
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="n">
         <v>1</v>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Source: This is a sales-sourced contact (not from prospect engagement). 
-• Data Origin: The data source and why this contact was identified. 
-• Approach: What approach might work best for cold outreach. 
-Focus on the sales context and potential fit, not prospect behavior (since they haven't engaged). 
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Engagement]: What the prospect was doing when they engaged with this campaign
+• [Intent/ Interest]: Why they likely engaged (their intent or product interest)
+• [Stage]: What this reveals about their buyer's journey stage
+Focus on the prospect's perspective and intent, not marketing terminology.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
-Campaign: HealthcareLPformfills
-Engagement method: Other: Engagment channel not categorized - review needed to determine buyer intent
-Secondary channel: website: Direct website visit or form fill - proactive buyer behavior
-Lead source context: Healthcare
-Industry context: Healthcare: Healthcare industry - HIPAA compilance needs
-Campaign description: Healthcare integrated campaign
-Campaign title: HealthcareLPformfills
+Campaign: Broken Attribution
+Engagement method: WIP
+Secondary channel: Other (Uncategorized sub-channel)
+Campaign title: Broken Attribution
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
-Concise sales focused campaign summary: Healthcare integrated campaign
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>• Source: Sales-sourced contact
-• Data Origin: Identified from Healthcare industry context 
-• Approach: Personalized outreach highlighting healthcare product benefits</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>• [Engagement]: Prospect engaged with Broken Attribution campaign through a method still in progress.
+• [Intent/ Interest]: Likely engaged due to interest in resolving attribution issues.
+• [Stage]: Indicates prospect is likely in the evaluation or consideration stage of the buyer's journey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>701800000019rkzAAA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Sales Generated_Data.com</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sales Generated</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sales Generated</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Data.com</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Source]: What the sales sourcing method is and explain why this contact was selected for outreach
+• [Data Origin]: The prospect profile and qualification criteria that made them a target
+• [Approach]: A specific cold outreach tactics, timing, and personalization strategy
+Focus on the sales context and potential fit not prospect behavior (since they haven't engaged).
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Sales Generated_Data.com
+Engagement method: Sales Generated (Sales rep created contact from data provider - no direct prospect engagement yet)
+Secondary channel: Sales Generated (Entered by sales team from internal source - low initial engagement)
+Lead source context: Data.com (Salesforce data provider - B2B contacts)
+Campaign title: Sales Generated_Data.com
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>• [Source]: Sales rep sourced contact from Data.com for targeted outreach 
+• [Data Origin]: B2B prospects in the US meeting specific qualification criteria 
+• [Approach]: Use personalized cold outreach tactics for timely engagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>701Hr000001KyBhIAK</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Google_US_Search_Contact_Center_RingCX-CallCenter_Broad</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Paid Search Campaign trageting Users Interested in RingCX Solutions</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Contact Center</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>RingCX Acquisition</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Paid Search Campaign trageting Users Interested in RingCX Solutions</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_Contact_Center_RingCX-CallCenter_Broad
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: Contact Center (Legacy contact center terminology - see RingCX)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingCX Acquisition (New contact center buyer - replacing or implementing first CC solution)
+Lead source context: Google (Google Ads - paid search intent)
+Campaign description: Paid Search Campaign trageting Users Interested in RingCX Solutions
+Campaign title: Google_US_Search_Contact_Center_RingCX-CallCenter_Broad
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search Campaign trageting Users Interested in RingCX Solutions
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' may have sparked engagement
+• [Urgency]: Tailor outreach to highlight solution fit and urgency for a new contact center implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>701Hr000001KyVIIA0</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Google_US_Search_Contact_Center_RingCX-AutoDialer_ALL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Paid Search - Users looking for our RingCX AutoDialer Solutions</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Contact Center</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>RingCX Acquisition</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Paid Search - Users looking for our RingCX AutoDialer Solutions</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_US_Search_Contact_Center_RingCX-AutoDialer_ALL
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: Contact Center (Legacy contact center terminology - see RingCX)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingCX Acquisition (New contact center buyer - replacing or implementing first CC solution)
+Lead source context: Google (Google Ads - paid search intent)
+Campaign description: Paid Search - Users looking for our RingCX AutoDialer Solutions
+Campaign title: Google_US_Search_Contact_Center_RingCX-AutoDialer_ALL
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Paid Search - Users looking for our RingCX AutoDialer Solutions
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' may have sparked engagement
+• [Urgency]: Tailor outreach based on comparison readiness for RingCX AutoDialer</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>701Hr000001KycpIAC</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Google_CA_Search_Toll_Free_ALL</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Users searching for RingCentral Toll Free Number Solutions (Google Canada)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="R57" t="b">
+        <v>0</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Users searching for RingCentral Toll Free Number Solutions (Google Canada)</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_CA_Search_Toll_Free_ALL
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Lead source context: Google (Google Ads - paid search intent)
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Campaign description: Users searching for RingCentral Toll Free Number Solutions (Google Canada)
+Campaign title: Google_CA_Search_Toll_Free_ALL
+Target geographic market for campaign: CA
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Users searching for RingCentral Toll Free Number Solutions (Google Canada)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' may have triggered the engagement
+• [Urgency]: Tailor outreach based on solution comparison urgency and potential fit for RingEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>701Hr000001KycrIAC</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Google_CA_Search_VoIP_ALL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Users searching for RingCentral Phone/Office/MVP Solutions (Google Canada)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Users searching for RingCentral Phone/Office/MVP Solutions (Google Canada)</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_CA_Search_VoIP_ALL
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Lead source context: Google (Google Ads - paid search intent)
+Campaign description: Users searching for RingCentral Phone/Office/MVP Solutions (Google Canada)
+Campaign title: Google_CA_Search_VoIP_ALL
+Target geographic market for campaign: CA
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Users searching for RingCentral Phone/Office/MVP Solutions (Google Canada)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' may have triggered the engagement
+• [Urgency]: Tailor outreach with urgency as they compare unified communications solutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>701Hr000001KyctIAC</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Google_CA_Search_vPBX_ALL</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Users searching for RingCentral Phone/Office/MVP Solutions (Google Canada)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Users searching for RingCentral Phone/Office/MVP Solutions (Google Canada)</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Google_CA_Search_vPBX_ALL
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Lead source context: Google (Google Ads - paid search intent)
+Campaign description: Users searching for RingCentral Phone/Office/MVP Solutions (Google Canada)
+Campaign title: Google_CA_Search_vPBX_ALL
+Target geographic market for campaign: CA
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Users searching for RingCentral Phone/Office/MVP Solutions (Google Canada)
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic term search like 'business phone system' may have sparked engagement
+• [Urgency]: Tailor outreach to address comparison needs and prompt solution evaluation</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>701Hr000001L31HIAS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Bing_US_Search_Phone_Systems_All</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Users searching for our Phone RingEX solutions on Bing</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Users searching for our Phone RingEX solutions on Bing</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Bing_US_Search_Phone_Systems_All
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Lead source context: Bing
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Campaign description: Users searching for our Phone RingEX solutions on Bing
+Campaign title: Bing_US_Search_Phone_Systems_All
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Users searching for our Phone RingEX solutions on Bing
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' likely sparked engagement
+• [Urgency]: Tailor outreach based on comparison of communication solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>701Hr000001L31JIAS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Bing_US_Search_Competitive_Comparison_ALL</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Paid Search</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Users searching for our Competitor's solutions on Bing</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Search Engines</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>SEM - Non-Brand</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>RingEX SMB Acquisition</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R61" t="b">
+        <v>0</v>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Users searching for our Competitor's solutions on Bing</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: What keyword or campaign may have triggered the engagement
+• [Urgency]: How to tailor outreach based on urgency or solution comparison
+Focus on urgency, buyer readiness, and solution fit.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: Bing_US_Search_Competitive_Comparison_ALL
+Engagement method: Paid Search (Clicked on search ads - actively searching for communication solutions with high intent)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Search Engines (SEM/SEO driven - paid or organic search)
+Specific engagement context: SEM - Non-Brand (Searched generic terms like 'business phone system' - comparing solutions)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX SMB Acquisition (Targeting small business (1-499 employees) - faster sales cycle, price sensitive)
+Lead source context: Bing
+Company size segment: SMB (20-99 employees - growing company, scalability important)
+Buyer journey stage: High intent - actively evaluating solutions (demo, trial, pricing interest)
+Campaign description: Users searching for our Competitor's solutions on Bing
+Campaign title: Bing_US_Search_Competitive_Comparison_ALL
+Target geographic market for campaign: US
+Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
+Concise sales focused campaign summary: Users searching for our Competitor's solutions on Bing
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>• [Search Behavior]: The lead actively searched for a solution or visited our site
+• [Trigger]: Generic terms like 'business phone system' might have triggered engagement
+• [Urgency]: Tailor outreach to showcase RingEX advantages for immediate comparison</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>701Hr000001L3yHIAS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SharedSOHOUS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sales Generated</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>This offer is only for US SOHO prospects in the shared leads space- offer is valid from May-Jul 2024 Backpocket promo available via RC direct only 35% off on Core, Adv and Ultra RingEX plans</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sales Generated</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>RC Internal</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="R62" t="b">
+        <v>1</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>This offer is only for US SOHO prospects in the shared leads space..</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Source]: What the sales sourcing method is and explain why this contact was selected for outreach
+• [Data Origin]: The prospect profile and qualification criteria that made them a target
+• [Approach]: A specific cold outreach tactics, timing, and personalization strategy
+Focus on the sales context and potential fit not prospect behavior (since they haven't engaged).
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: SharedSOHOUS
+Engagement method: Sales Generated (Sales rep created contact from data provider - no direct prospect engagement yet)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Sales Generated (Entered by sales team from internal source - low initial engagement)
+Lead source context: RC Internal (Internal RingCentral campaign)
+Company size segment: SOHO (1-19 employees - price sensitive, needs simple solution)
+Campaign description: This offer is only for US SOHO prospects in the shared leads space- offer is valid from May-Jul 2024 Backpocket promo available via RC direct only 35% off on Core, Adv and Ultra RingEX plans
+Campaign title: SharedSOHOUS
+Target geographic market for campaign: US
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Concise sales focused campaign summary: This offer is only for US SOHO prospects in the shared leads space..
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>• [Source]: Sales rep created contact from internal RingCentral campaign data: Targeted US SOHO prospects for RingEX.
+• [Data Origin]: Targeting SOHO segment (1-19 employees) in the US interested in RingEX (UCaaS).
+• [Approach]: Initiate personalized cold outreach offering 35% off Core, Adv, and Ultra RingEX plans via RC direct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>701Hr000001L5mxIAC</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CHP_AU_TDC_Q3_2024</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>VAR Campaigns</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>TelcoDataCloud Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>RingEX Upmarket Acquisition</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>TelcoDataCloud</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="R63" t="b">
+        <v>1</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>TelcoDataCloud Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>6</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: CHP_AU_TDC_Q3_2024
+Engagement method: VAR Campaigns (Partner-led campaign through Value Added Reseller - prospect likely working with a trusted technology advisor/consultant who recommended RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Other (Uncategorized sub-channel)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX Upmarket Acquisition (Targeting Majors (500-4999) and Enterprise (5000+) for UCaaS - complex buying process)
+Lead source context: TelcoDataCloud
+Company size segment: Upmarket (500+ employees (includes Majors and Enterprise))
+Campaign description: TelcoDataCloud Q3 Marketing activties
+Campaign title: CHP_AU_TDC_Q3_2024
+Target geographic market for campaign: AU
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Concise sales focused campaign summary: TelcoDataCloud Q3 Marketing activties
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Partner-led VAR campaign through TelcoDataCloud provides credibility from trusted technology advisors, guiding prospect's RingEX interest.  
+• [Fit/ Alignment]: Indicates strong fit for RingEX UCaaS in upmarket segment, aligning with Majors and Enterprise needs for business phone systems.  
+• [Leverage]: Utilize VAR partner credibility to emphasize RingEX integration with prospect's UCaaS requirements, showcasing ecosystem alignment for targeted outreach.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>701Hr000001L5mzIAC</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CHP_AU_TSCloud_Q3_2024</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>VAR Campaigns</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>TS Cloud Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>RingEX Upmarket Acquisition</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>TS Cloud</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="R64" t="b">
+        <v>1</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>TS Cloud Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>6</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: CHP_AU_TSCloud_Q3_2024
+Engagement method: VAR Campaigns (Partner-led campaign through Value Added Reseller - prospect likely working with a trusted technology advisor/consultant who recommended RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Other (Uncategorized sub-channel)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX Upmarket Acquisition (Targeting Majors (500-4999) and Enterprise (5000+) for UCaaS - complex buying process)
+Lead source context: TS Cloud
+Company size segment: Upmarket (500+ employees (includes Majors and Enterprise))
+Campaign description: TS Cloud Q3 Marketing activties
+Campaign title: CHP_AU_TSCloud_Q3_2024
+Target geographic market for campaign: AU
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Concise sales focused campaign summary: TS Cloud Q3 Marketing activties
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Partner-led VAR campaign through a trusted technology advisor/consultant recommending RingEX for UCaaS needs
+• [Fit/ Alignment]: Indicates strong fit for RingCentral's UCaaS solution in Majors and Enterprise segments
+• [Leverage]: Leverage partner credibility to emphasize RingEX's alignment with prospect's complex UCaaS requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>701Hr000001L5n0IAC</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CHP_AU_Cloud4Tek_Q3_2024</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>VAR Campaigns</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Cloud4Tek Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>RingEX Upmarket Acquisition</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Cloud4Tek</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="R65" t="b">
+        <v>1</v>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Cloud4Tek Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: CHP_AU_Cloud4Tek_Q3_2024
+Engagement method: VAR Campaigns (Partner-led campaign through Value Added Reseller - prospect likely working with a trusted technology advisor/consultant who recommended RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Other (Uncategorized sub-channel)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX Upmarket Acquisition (Targeting Majors (500-4999) and Enterprise (5000+) for UCaaS - complex buying process)
+Lead source context: Cloud4Tek
+Company size segment: Upmarket (500+ employees (includes Majors and Enterprise))
+Campaign description: Cloud4Tek Q3 Marketing activties
+Campaign title: CHP_AU_Cloud4Tek_Q3_2024
+Target geographic market for campaign: AU
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Concise sales focused campaign summary: Cloud4Tek Q3 Marketing activties
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Value Added Reseller (VAR) recommended RingCentral, indicating a trusted technology advisor's endorsement.
+• [Fit/ Alignment]: Targeting Majors &amp; Enterprise for RingEX UCaaS aligns with upmarket focus and complex buying processes.
+• [Leverage]: Use VAR credibility to emphasize UCaaS fit for large organizations, focusing on integration needs and ecosystem alignment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>701Hr000001L5n1IAC</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CHP_AU_ICTrevolution_Q3_2024</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>VAR Campaigns</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ICT Revolution Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>RingEX Upmarket Acquisition</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>ICT Revolution</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="R66" t="b">
+        <v>1</v>
+      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>ICT Revolution Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: CHP_AU_ICTrevolution_Q3_2024
+Engagement method: VAR Campaigns (Partner-led campaign through Value Added Reseller - prospect likely working with a trusted technology advisor/consultant who recommended RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Other (Uncategorized sub-channel)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX Upmarket Acquisition (Targeting Majors (500-4999) and Enterprise (5000+) for UCaaS - complex buying process)
+Lead source context: ICT Revolution
+Company size segment: Upmarket (500+ employees (includes Majors and Enterprise))
+Campaign description: ICT Revolution Q3 Marketing activties
+Campaign title: CHP_AU_ICTrevolution_Q3_2024
+Target geographic market for campaign: AU
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Concise sales focused campaign summary: ICT Revolution Q3 Marketing activties
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Partner-led VAR campaign through a trusted technology advisor who recommended RingCentral.
+• [Fit/ Alignment]: Targeting Majors and Enterprise for RingEX UCaaS, indicating alignment with complex unified communications needs.
+• [Leverage]: Highlight RingEX's fit for large organizations, referencing the partner's credibility to emphasize tailored UCaaS solutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>701Hr000001L5n5IAC</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CHP_AU_Reliance_Q3_2024</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>VAR Campaigns</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Reliance Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>RingEX Upmarket Acquisition</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Reliance</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="R67" t="b">
+        <v>1</v>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Reliance Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: CHP_AU_Reliance_Q3_2024
+Engagement method: VAR Campaigns (Partner-led campaign through Value Added Reseller - prospect likely working with a trusted technology advisor/consultant who recommended RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Other (Uncategorized sub-channel)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX Upmarket Acquisition (Targeting Majors (500-4999) and Enterprise (5000+) for UCaaS - complex buying process)
+Lead source context: Reliance
+Company size segment: Upmarket (500+ employees (includes Majors and Enterprise))
+Campaign description: Reliance Q3 Marketing activties
+Campaign title: CHP_AU_Reliance_Q3_2024
+Target geographic market for campaign: AU
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Concise sales focused campaign summary: Reliance Q3 Marketing activties
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Partner-led VAR campaign through trusted technology advisor/consultant (Reliance) indicates strong credibility in recommending RingEX.
+• [Fit/ Alignment]: Targeting Majors and Enterprise for RingEX UCaaS suggests a fit for larger-scale unified communications needs.
+• [Leverage]: Highlight RingEX's enterprise capabilities when reaching out, leveraging the trusted advisor's endorsement for tailored solutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>701Hr000001L5n7IAC</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CHP_AU_Horizon_Q3_2024</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>VAR Campaigns</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Horizon Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>RingEX Upmarket Acquisition</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Horizon</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="R68" t="b">
+        <v>1</v>
+      </c>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Horizon Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: CHP_AU_Horizon_Q3_2024
+Engagement method: VAR Campaigns (Partner-led campaign through Value Added Reseller - prospect likely working with a trusted technology advisor/consultant who recommended RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Other (Uncategorized sub-channel)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX Upmarket Acquisition (Targeting Majors (500-4999) and Enterprise (5000+) for UCaaS - complex buying process)
+Lead source context: Horizon
+Company size segment: Upmarket (500+ employees (includes Majors and Enterprise))
+Campaign description: Horizon Q3 Marketing activties
+Campaign title: CHP_AU_Horizon_Q3_2024
+Target geographic market for campaign: AU
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Concise sales focused campaign summary: Horizon Q3 Marketing activties
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Partner-led VAR campaign through trusted technology advisor for RingEX provides credibility and trust. 
+• [Fit/ Alignment]: Targeting Majors and Enterprise indicates strong fit for RingEX in complex UCaaS environments. 
+• [Leverage]: Utilize partner credibility to showcase RingEX's integration capabilities for tailored outreach to IT decision makers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>701Hr000001L5n9IAC</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CHP_AU_Baillieu_Q3_2024</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>VAR Campaigns</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Baillieu Consulting Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>RingEX Upmarket Acquisition</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Baillieu Consulting</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="R69" t="b">
+        <v>1</v>
+      </c>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Baillieu Consulting Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: CHP_AU_Baillieu_Q3_2024
+Engagement method: VAR Campaigns (Partner-led campaign through Value Added Reseller - prospect likely working with a trusted technology advisor/consultant who recommended RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Other (Uncategorized sub-channel)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX Upmarket Acquisition (Targeting Majors (500-4999) and Enterprise (5000+) for UCaaS - complex buying process)
+Lead source context: Baillieu Consulting
+Company size segment: Upmarket (500+ employees (includes Majors and Enterprise))
+Campaign description: Baillieu Consulting Q3 Marketing activties
+Campaign title: CHP_AU_Baillieu_Q3_2024
+Target geographic market for campaign: AU
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Concise sales focused campaign summary: Baillieu Consulting Q3 Marketing activties
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Partner-led campaign by Baillieu Consulting, indicating a trusted technology advisor recommended RingEX.
+• [Fit/ Alignment]: Targets Majors and Enterprise for RingEX UCaaS, highlighting product fit for complex unified communications needs.
+• [Leverage]: Utilize Baillieu Consulting's credibility to emphasize tailored UCaaS solutions for large organizations in outreach.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>701Hr000001L5nBIAS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CHP_AU_Accucom_Q3_2024</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>VAR Campaigns</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Accucom Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>RingEX</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Greenfield</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>RingEX Upmarket Acquisition</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Accucom</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="R70" t="b">
+        <v>1</v>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Accucom Q3 Marketing activties</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: CHP_AU_Accucom_Q3_2024
+Engagement method: VAR Campaigns (Partner-led campaign through Value Added Reseller - prospect likely working with a trusted technology advisor/consultant who recommended RingCentral)
+Product interest: RingEX (UCaaS/business phone system buyer - likely IT decision maker for unified communications)
+Secondary channel: Other (Uncategorized sub-channel)
+Target customer profile program classification: Greenfield (Ongoing evergreen campaign - continous lead flow)
+Target customer profile and strategy: RingEX Upmarket Acquisition (Targeting Majors (500-4999) and Enterprise (5000+) for UCaaS - complex buying process)
+Lead source context: Accucom
+Company size segment: Upmarket (500+ employees (includes Majors and Enterprise))
+Campaign description: Accucom Q3 Marketing activties
+Campaign title: CHP_AU_Accucom_Q3_2024
+Target geographic market for campaign: AU
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Concise sales focused campaign summary: Accucom Q3 Marketing activties
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Trusted technology advisor/consultant from Accucom recommended RingCentral, indicating strong credibility and tech expertise
+• [Fit/ Alignment]: Prospect interested in RingEX for unified communications, targeting Majors and Enterprise - complex buying process aligns with upmarket segment
+• [Leverage]: Highlight RingEX's fit for large-scale UCaaS needs, leveraging Accucom's referral to emphasize credibility and guide outreach</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>701Hr000001L6CdIAK</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CHP_UK_SOFTCAT_ROADSHOW_LAMBERT_2024Q3</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>VAR Campaigns</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>- RingCentral roadshow across all offices (to include enablement sessions and account mapping, followed by a fun activity to help rebuild the relationship). 
+- Incentive - Q4 (launch across all offices).</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Events</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Contact Center</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Softcat</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="R71" t="b">
+        <v>1</v>
+      </c>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>- RingCentral roadshow across all offices (to include enablement sessions and account mapping, followed by a fun activity to help rebuild the relationship). 
+- Incentive - Q4 (launch across all offices).</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Referral Source]: What type of partner is this and what credibility or context does that provide
+• [Fit/ Alignment]: What does the referral or campaign suggest about product fit, integration needs, or ecosystem alignment
+• [Leverage]: Identify the product being promoted and explain how to use partner credibility to guide outreach
+Focus on leveraging the referral trust and highlighting integration or ecosystem relevance.
+IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
+Campaign Information:
+Campaign: CHP_UK_SOFTCAT_ROADSHOW_LAMBERT_2024Q3
+Engagement method: VAR Campaigns (Partner-led campaign through Value Added Reseller - prospect likely working with a trusted technology advisor/consultant who recommended RingCentral)
+Product interest: Contact Center (Legacy contact center terminology - see RingCX)
+Secondary channel: Events (Event marketing - webinars, conferences, tradeshows)
+Lead source context: Softcat
+Campaign description: - RingCentral roadshow across all offices (to include enablement sessions and account mapping, followed by a fun activity to help rebuild the relationship). 
+- Incentive - Q4 (launch across all offices).
+Campaign title: CHP_UK_SOFTCAT_ROADSHOW_LAMBERT_2024Q3
+Target geographic market for campaign: UK
+Attribution tracking: Cannot directly trace leads back to this campaign (lead may have been influenced by campaign)
+Concise sales focused campaign summary: - RingCentral roadshow across all offices (to include enablement sessions and account mapping, followed by a fun activity to help rebuild the relationship). 
+- Incentive - Q4 (launch across all offices).
+Description (max 255 characters):</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>• [Referral Source]: Softcat is a trusted technology advisor recommending RingCentral, indicating strong credibility in the prospect's eyes.
+• [Fit/ Alignment]: Campaign focuses on Contact Center product interest, implying a fit for prospect's legacy contact center needs.
+• [Leverage]: Highlight RingCentral's Contact Center solution, leveraging Softcat's recommendation to emphasize alignment with prospect's technology requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1">
+      <c r="A72" t="inlineStr">
         <is>
           <t>701Hr000002I3SJIA0</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>True_Walk_On_2024</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Walk-On</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
         <is>
           <t>Walk-On</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="R15" t="b">
+      <c r="R72" t="b">
         <v>0</v>
       </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow up. Output exactly 3 concise bullet points with the specified category labels: Descriptions should be clear, relevant, quick to read, and under 255 characters total. Always mention the product interest if it's available. DO NOT repeat the campaign name. Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up: 
-• Participation: The prospect attended a live event or self submitted interest. 
-• Signal: What this action suggests about their current interest or goals. 
-• Engagement Style: How to follow up in a relationship driven or consultative way. 
-Focus on event context and tailoring outreach around shared experience or learning goals. 
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="n">
+        <v>44</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>You are generating a campaign description for a sales rep. Use the provided Salesforce campaign metadata to infer campaign purpose, prospect behavior, and recommended rep follow-up. CRITICAL FORMATTING: Output exactly 3 lines, each starting with '• ' (bullet + space) followed by the EXACT category label (enclosed in []), then a colon, then your description. 
+DO NOT use dashes (-), asterisks (*), bold formatting (**), numbers, or any other bullet style. 
+NEVER use colons (:) or dashes (-) anywhere in your descriptions - only the single colon after the category label is allowed. 
+DO NOT REPEAT raw metadata verbatim. 
+DO NOT REPEAT the campaign name. 
+Descriptions should be clear, relevant, quick to read, and under 255 characters total. 
+Always mention the product interest if it's available. 
+Write with the goal of helping a sales rep understand the prospect's mindset and how to follow up.
+Help a salesperson understand:
+Each bullet should use this format: • &lt;Exact Category Label&gt;: &lt;Your Description&gt; 
+• [Participation]: The prospect attended a live event or self submitted interest
+• [Signal]: What this action suggests about their buying stage and solution priorities based on event engagement
+• [Engagement Style]: How to follow up in a relationship driven or consultative way
+Focus on event context and tailoring outreach around shared experience or learning goals.
 IMPORTANT: If the campaign details mention any URLs or websites, preserve the domain name in your description.
 Campaign Information:
 Campaign: True_Walk_On_2024
-Engagement method: Walk-On: Self-submitted or inbound lead without campaign - high initiative, potentially urgent need
-Secondary channel: Walk-On: Inbound lead without source - prospect found us directly
+Engagement method: Walk-On (Self-submitted or inbound lead without campaign - high initiative, potentially urgent need)
+Secondary channel: Walk-On (Inbound lead without source - prospect found us directly)
 Campaign title: True_Walk_On_2024
 Target geographic market for campaign: US
 Attribution tracking: Can clearly track that a lead came from this specific campaign (clear cause + effect)
 Description (max 255 characters):</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>• Participation: Prospect self-submitted interest or found us directly without source.
-• Signal: Indicates high initiative and potentially urgent need related to our product.
-• Engagement Style: Follow up in a consultative manner, acknowledging their proactive approach and addressing their urgent needs.</t>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>• [Participation]: The prospect self-submitted interest or attended a live event. 
+• [Signal]: Indicates high initiative and potentially urgent need, showing active engagement. 
+• [Engagement Style]: Follow up with a consultative approach, focusing on shared event experience or learning goals.</t>
         </is>
       </c>
     </row>
@@ -2012,7 +8187,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -2022,7 +8197,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -2032,7 +8207,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -2065,7 +8240,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>307.3 chars</t>
+          <t>305.5 chars</t>
         </is>
       </c>
     </row>
@@ -2076,7 +8251,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
@@ -2086,7 +8261,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.43</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -2096,7 +8271,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -2106,7 +8281,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -2116,7 +8291,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -2126,7 +8301,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -2136,7 +8311,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -2146,7 +8321,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -2156,7 +8331,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -2167,7 +8342,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-22 12:39:42</t>
+          <t>2025-07-22 15:59:55</t>
         </is>
       </c>
     </row>
